--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,16 +4,28 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="623" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8130" tabRatio="954" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="LetterHead" sheetId="1" r:id="rId1"/>
+    <sheet name="Configuration" sheetId="1" r:id="rId1"/>
     <sheet name="Assessment Information" sheetId="2" r:id="rId2"/>
     <sheet name="Purposes" sheetId="3" r:id="rId3"/>
     <sheet name="Methods used" sheetId="4" r:id="rId4"/>
     <sheet name="Documentation Received" sheetId="5" r:id="rId5"/>
     <sheet name="Medical Information" sheetId="6" r:id="rId6"/>
     <sheet name="Background" sheetId="7" r:id="rId7"/>
+    <sheet name="Main Complaints" sheetId="8" r:id="rId8"/>
+    <sheet name="Consistency performance" sheetId="9" r:id="rId9"/>
+    <sheet name="Physical results" sheetId="10" r:id="rId10"/>
+    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId11"/>
+    <sheet name="Thurstone" sheetId="12" r:id="rId12"/>
+    <sheet name="Rivermead" sheetId="13" r:id="rId13"/>
+    <sheet name="Cam" sheetId="14" r:id="rId14"/>
+    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId15"/>
+    <sheet name="Cooperation effort" sheetId="16" r:id="rId16"/>
+    <sheet name="General Observations" sheetId="17" r:id="rId17"/>
+    <sheet name="Pain report" sheetId="18" r:id="rId18"/>
+    <sheet name="Safety" sheetId="19" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="OLE_LINK19" localSheetId="6">Background!#REF!</definedName>
@@ -24,15 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="246">
   <si>
     <t>Therapist</t>
   </si>
   <si>
     <t>FirstName</t>
-  </si>
-  <si>
-    <t>Aislinn</t>
   </si>
   <si>
     <t>LastName</t>
@@ -156,9 +165,6 @@
     <t xml:space="preserve">Self-report measures </t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
     <t xml:space="preserve">To gather information regarding the client’s pre-injury/illness, current and future abilities </t>
   </si>
   <si>
@@ -445,6 +451,330 @@
   </si>
   <si>
     <t>Institution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae reported experiencing anxiety at times however he further noted that his medication is improving his experience of anxiety </t>
+  </si>
+  <si>
+    <t>The client drove himself to the assessment in his own private car and he arrived timeously for the assessment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae arrived prepared for the assessment process, he brought copies of relevant documentation and he was able to complete the assessment forms with independence and adequate detail </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client was friendly in his interaction however he was observed to be anxious initially in the assessment, his anxiety levels improved as the assessment progressed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He cooperated with all demands made on him for the full duration of the assessment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae did not report or display any overt physical limitations during the assessment process. The client demonstrated an adequate ability to perform and maintain functional positions such as sitting, standing, walking and stair climbing with independence and without any reported limitations. Mr. Keefelakae did not demonstrate or report experiencing any physical pain or discomfort at any time during the assessment period or when questioned. Due to the psychological nature of the client’s medical diagnosis and presented features, the performance of a formal physical (WorkWell) assessment was not deemed necessary and therefore was not performed during this assessment. </t>
+  </si>
+  <si>
+    <t>Cognitive</t>
+  </si>
+  <si>
+    <t>Psychosocial</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Aspect</t>
+  </si>
+  <si>
+    <t>Orientation</t>
+  </si>
+  <si>
+    <t>Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thinking </t>
+  </si>
+  <si>
+    <t>Insight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client was orientated to person, place and time. This was further assessed in the Cognitive Assessment of Minnesota. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client demonstrated an adequate ability to concentrate throughout the assessment period. At no time during the assessment did he require any redirections of his attention while participating in cognitive testing. Mr. Keefelakae was further assessed to have adequate concentration abilities in the Cognitive Assessment of Minnesota as well as during the Thurstone Questionnaire. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae’s thoughts were logical and goal directed at all times during the assessment. The client demonstrated an adequate ability to perform abstract thinking in the Cognitive Assessment of Minnesota. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae displayed slightly decreased insight into his medical condition. He was assessed to be in the 5th stage of insight; this indicates ‘intellectual insight’  however he does not appear to have reached true emotional insight at this stage.  </t>
+  </si>
+  <si>
+    <t>Motivation</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t>Decision making and problem solving skills</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae displayed adequate internal motivation throughout the assessment. His participation was active at all times during the assessment and he furthermore verbalized a motivation to continue working and be productive, as he believes he is a valuable member of the SAPS. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client displayed adequate receptive and expressive communication in English. He was able to follow verbal, written and diagrammatic instructions at all times and he was able to grasp instructions adequately during the performance of the cognitive assessment tasks. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Keefelakae demonstrated an adequate ability to perform concrete and abstract decision-making. He was furthermore assessed to have an adequate ability to perform simple, moderate and complex problem solving skills in the Cognitive Assessment of Minnesota. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client displayed an adequate long-term memory when relaying his medical and personal histories during the interview process. He further was assessed to have adequate short-term and working memory abilities in the Rivermead Behavioural Memory Test and the Cognitive Assessment of Minnesota. </t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>TimeNorm</t>
+  </si>
+  <si>
+    <t>Errors</t>
+  </si>
+  <si>
+    <t>Test 1</t>
+  </si>
+  <si>
+    <t>8 minutes 41 seconds</t>
+  </si>
+  <si>
+    <t>8 minutes 45 seconds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client performed task with average speed and with adequate accuracy. </t>
+  </si>
+  <si>
+    <t>Test 2</t>
+  </si>
+  <si>
+    <t>6 minutes 18 seconds</t>
+  </si>
+  <si>
+    <t>6 minutes 7 seconds</t>
+  </si>
+  <si>
+    <t>Client performed task with slightly below average speed and with adequate accuracy.</t>
+  </si>
+  <si>
+    <t>Delayed recall</t>
+  </si>
+  <si>
+    <t>First/second names</t>
+  </si>
+  <si>
+    <t>Story</t>
+  </si>
+  <si>
+    <t>Novel task</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Delayed recognition</t>
+  </si>
+  <si>
+    <t>Picture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Face </t>
+  </si>
+  <si>
+    <t>Immediate recall</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Below average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 ½ </t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 ½ </t>
+  </si>
+  <si>
+    <t>ScaledScore</t>
+  </si>
+  <si>
+    <t>RawScore</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Score</t>
+  </si>
+  <si>
+    <t>Foresight and planning</t>
+  </si>
+  <si>
+    <t>Severe</t>
+  </si>
+  <si>
+    <t>Pro</t>
+  </si>
+  <si>
+    <t>complex</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>cc</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>FD</t>
+  </si>
+  <si>
+    <t>dsfjsfds</t>
+  </si>
+  <si>
+    <t>pain 1</t>
+  </si>
+  <si>
+    <t>pain2</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Bullet</t>
+  </si>
+  <si>
+    <t>Mav</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>structured interview</t>
+  </si>
+  <si>
+    <t>Clinical examination</t>
+  </si>
+  <si>
+    <t>Client observationAssessment of physical abilities</t>
+  </si>
+  <si>
+    <t>Workwell FCE protocol</t>
+  </si>
+  <si>
+    <t>Assessment of psychosocial status</t>
+  </si>
+  <si>
+    <t>Thurston Cognitive Assessment</t>
+  </si>
+  <si>
+    <t>Cognitive assessment of Minnesota (CAM)</t>
+  </si>
+  <si>
+    <t>Test of information processing skills (TIPS)</t>
+  </si>
+  <si>
+    <t>Ruff 2 and 7</t>
+  </si>
+  <si>
+    <t>Rivermead behavioural memory test (RBMT)</t>
+  </si>
+  <si>
+    <t>Self report measures used:</t>
+  </si>
+  <si>
+    <t>EPIC Spinal Function Sort</t>
+  </si>
+  <si>
+    <t>Upper Extremity Functional Index (UEFI)</t>
+  </si>
+  <si>
+    <t>Lower Extremity functional index (LEFI)</t>
+  </si>
+  <si>
+    <t>Dallas Pain Questionnaire</t>
+  </si>
+  <si>
+    <t>Becks Depression Inventory (BDI)</t>
+  </si>
+  <si>
+    <t>Stress Questionnaire</t>
+  </si>
+  <si>
+    <t>Becks Anxiety Inventory (BAI)</t>
+  </si>
+  <si>
+    <t>Impact of Events Scale</t>
+  </si>
+  <si>
+    <t>Oswestry Disability Index (ODI)</t>
+  </si>
+  <si>
+    <t>Disabilities of the Arm, Shoulder and Hand (DASH)</t>
+  </si>
+  <si>
+    <t>Patient Rated Wrist and Hand Evaluation (PRWHE)</t>
+  </si>
+  <si>
+    <t>Orebro Musculoskeletal Pain Screening Questionnaire (OMPSQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fear Avoidance Beliefs Questionnaire (FABQ) </t>
+  </si>
+  <si>
+    <t>Neck Disability Index (NDI)</t>
+  </si>
+  <si>
+    <t>Roland Morris Disability Questionnaire (RMDQ)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Mental Health Inventory (MHI) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collateral information </t>
+  </si>
+  <si>
+    <t>Work visit</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>ljsfsd</t>
   </si>
 </sst>
 </file>
@@ -932,7 +1262,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -947,41 +1277,41 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -998,12 +1328,633 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="D7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:E4"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" t="s">
+        <v>167</v>
+      </c>
+      <c r="E2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>25</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1">
+        <v>50</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34</v>
+      </c>
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J44" sqref="J44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -1017,15 +1968,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
-      </c>
-      <c r="B2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="6">
         <v>7507126057089</v>
@@ -1033,20 +1984,20 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>3084530458</v>
@@ -1054,34 +2005,34 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" s="4">
         <f ca="1">NOW()</f>
-        <v>41867.964120023149</v>
+        <v>41869.936051851852</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1089,61 +2040,61 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24">
       <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
         <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
         <v>33</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -1153,7 +2104,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1169,42 +2120,42 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
     <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>69</v>
+      <c r="A2" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -1220,60 +2171,228 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A2:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="10" max="10" width="56" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>213</v>
+      </c>
+      <c r="J2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+      <c r="J4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+      <c r="I5" t="s">
+        <v>214</v>
+      </c>
+      <c r="J5" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>73</v>
+      <c r="I6" t="s">
+        <v>214</v>
+      </c>
+      <c r="J6" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="I7" t="s">
+        <v>214</v>
+      </c>
+      <c r="J7" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="I8" t="s">
+        <v>214</v>
+      </c>
+      <c r="J8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="I9" t="s">
+        <v>214</v>
+      </c>
+      <c r="J9" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
+      <c r="I10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J10" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="I11" t="s">
+        <v>244</v>
+      </c>
+      <c r="J11" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="I12" t="s">
+        <v>244</v>
+      </c>
+      <c r="J12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="I13" t="s">
+        <v>212</v>
+      </c>
+      <c r="J13" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14" t="s">
+        <v>212</v>
+      </c>
+      <c r="J14" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15" t="s">
+        <v>212</v>
+      </c>
+      <c r="J15" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16" t="s">
+        <v>212</v>
+      </c>
+      <c r="J16" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="17" spans="9:10">
+      <c r="J17" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="18" spans="9:10">
+      <c r="J18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="19" spans="9:10">
+      <c r="J19" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="20" spans="9:10">
+      <c r="J20" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="21" spans="9:10">
+      <c r="J21" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="9:10">
+      <c r="J22" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="23" spans="9:10">
+      <c r="J23" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="24" spans="9:10">
+      <c r="J24" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="25" spans="9:10">
+      <c r="J25" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="26" spans="9:10">
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="9:10">
+      <c r="J27" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="28" spans="9:10">
+      <c r="J28" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="29" spans="9:10">
+      <c r="J29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30" spans="9:10">
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="9:10">
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="9:10">
+      <c r="I32" t="s">
+        <v>244</v>
+      </c>
+      <c r="J32" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -1284,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1299,90 +2418,398 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+      <c r="C33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B36" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1393,10 +2820,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1409,16 +2836,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1426,13 +2853,13 @@
         <v>40987</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1440,13 +2867,13 @@
         <v>40995</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1454,13 +2881,13 @@
         <v>41037</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1468,13 +2895,13 @@
         <v>41205</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1482,37 +2909,37 @@
         <v>40987</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="7"/>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1520,26 +2947,8 @@
         <v>41128</v>
       </c>
       <c r="B9" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="7"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="7"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="7"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="7"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="7"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="7"/>
+        <v>79</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1551,7 +2960,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1564,148 +2973,148 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B14" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="B17" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="B18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="B23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="B24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1713,35 +3122,157 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="B29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C29" t="s">
         <v>133</v>
-      </c>
-      <c r="B29" t="s">
-        <v>134</v>
-      </c>
-      <c r="C29" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B30" t="s">
+        <v>135</v>
+      </c>
+      <c r="C30" t="s">
         <v>136</v>
       </c>
-      <c r="B30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C30" t="s">
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
         <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B7" s="4">
         <f ca="1">NOW()</f>
-        <v>41869.936051851852</v>
+        <v>41870.335748263889</v>
       </c>
     </row>
     <row r="8" spans="1:2">

--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="954" firstSheet="18" activeTab="20"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="954" firstSheet="8" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="FemaleHand grip" sheetId="22" state="hidden" r:id="rId1"/>
@@ -41,7 +41,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MaleHand grip'!$A$1:$E$62</definedName>
     <definedName name="age">'Assessment Information'!$B$4</definedName>
-    <definedName name="david">'Methods used'!$J$3:$J$32</definedName>
+    <definedName name="david">'Methods used'!$B$3:$B$32</definedName>
     <definedName name="OLE_LINK19" localSheetId="14">Background!#REF!</definedName>
     <definedName name="OLE_LINK21" localSheetId="14">Background!#REF!</definedName>
   </definedNames>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="318">
   <si>
     <t>Therapist</t>
   </si>
@@ -172,30 +172,9 @@
     <t>Client</t>
   </si>
   <si>
-    <t>Background questionnaire and interview</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clinical, Physical and Cognitive assessment </t>
-  </si>
-  <si>
-    <t>Workwell FCE Protocol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-report measures </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To gather information regarding the client’s pre-injury/illness, current and future abilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">To describe the effects of the injuries sustained by the client on their functional abilities </t>
-  </si>
-  <si>
     <t>Determine ability to return to previous job or other job and transferable skills</t>
   </si>
   <si>
-    <t>Determine psychological and cognitive abilities, and effect of these components on the client’s activities of daily living</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
@@ -259,9 +238,6 @@
     <t>March 4, 2014</t>
   </si>
   <si>
-    <t>Identify the client’s current impairments</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -562,24 +538,9 @@
     <t>Test 1</t>
   </si>
   <si>
-    <t>8 minutes 45 seconds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Client performed task with average speed and with adequate accuracy. </t>
-  </si>
-  <si>
     <t>Test 2</t>
   </si>
   <si>
-    <t>6 minutes 18 seconds</t>
-  </si>
-  <si>
-    <t>6 minutes 7 seconds</t>
-  </si>
-  <si>
-    <t>Client performed task with slightly below average speed and with adequate accuracy.</t>
-  </si>
-  <si>
     <t>Delayed recall</t>
   </si>
   <si>
@@ -745,9 +706,6 @@
     <t>Work visit</t>
   </si>
   <si>
-    <t>ljsfsd</t>
-  </si>
-  <si>
     <t>Emotional state</t>
   </si>
   <si>
@@ -952,15 +910,9 @@
     <t>To describe the effects of the injuries sustained by the client on their functional abilities</t>
   </si>
   <si>
-    <t xml:space="preserve"> Determine ability to return to previous job or other job and transferable skills</t>
-  </si>
-  <si>
     <t>Determine psychological and cognitive abilities, and effect of these components on the client’s ability to work</t>
   </si>
   <si>
-    <t xml:space="preserve"> Identify potential for further rehabilitation, training or treatment to improve vocational abilities</t>
-  </si>
-  <si>
     <t>To make recommendations regading costing of further intervention and adaptive equipment</t>
   </si>
   <si>
@@ -1040,20 +992,39 @@
   </si>
   <si>
     <t>O</t>
+  </si>
+  <si>
+    <t>Identify potential for further rehabilitation, training or treatment to improve vocational abilities</t>
+  </si>
+  <si>
+    <t>TimeMinutes</t>
+  </si>
+  <si>
+    <t>TimeSeconds</t>
+  </si>
+  <si>
+    <t>NormMinutes</t>
+  </si>
+  <si>
+    <t>NormSeconds</t>
+  </si>
+  <si>
+    <t>TimeNormn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="164" formatCode="mm/dd/yy\ hh:mm\ AM/PM"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="yymmdd"/>
     <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="169" formatCode="m:ss"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1130,6 +1101,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1415,7 +1394,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1502,6 +1481,8 @@
     <xf numFmtId="165" fontId="12" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="2" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1513,6 +1494,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Input" xfId="2" builtinId="20"/>
@@ -1674,11 +1656,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="104660352"/>
-        <c:axId val="105162240"/>
+        <c:axId val="107158912"/>
+        <c:axId val="107202048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="104660352"/>
+        <c:axId val="107158912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,7 +1695,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105162240"/>
+        <c:crossAx val="107202048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1723,7 +1705,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105162240"/>
+        <c:axId val="107202048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="104660352"/>
+        <c:crossAx val="107158912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1955,11 +1937,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="105591552"/>
-        <c:axId val="105593472"/>
+        <c:axId val="107361024"/>
+        <c:axId val="107362944"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="105591552"/>
+        <c:axId val="107361024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1994,7 +1976,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105593472"/>
+        <c:crossAx val="107362944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2004,7 +1986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="105593472"/>
+        <c:axId val="107362944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2031,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="105591552"/>
+        <c:crossAx val="107361024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,16 +2548,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3667,10 +3649,10 @@
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>259</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
@@ -3695,7 +3677,7 @@
       </c>
       <c r="B7" s="48">
         <f ca="1">NOW()</f>
-        <v>41928.573282754631</v>
+        <v>41928.740255671299</v>
       </c>
       <c r="F7" s="23"/>
     </row>
@@ -3800,10 +3782,10 @@
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="C21" s="46" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -3840,123 +3822,126 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E13"/>
+  <dimension ref="A2:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="109" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="94.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="109" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="94.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D2" t="s">
-        <v>198</v>
-      </c>
-      <c r="E2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>199</v>
-      </c>
-      <c r="E3" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
+        <v>185</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="46"/>
+      <c r="B3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="46" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" t="s">
-        <v>199</v>
-      </c>
-      <c r="E5" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" t="s">
-        <v>199</v>
-      </c>
-      <c r="E6" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="46" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="46"/>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="46"/>
+      <c r="B6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="46"/>
+      <c r="B7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
       <c r="A8" s="46"/>
-      <c r="D8" t="s">
-        <v>199</v>
-      </c>
-      <c r="E8" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
+      <c r="B8" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
       <c r="A9" s="46"/>
-      <c r="E9" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="46"/>
-      <c r="D10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="46"/>
-      <c r="E11" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
+      <c r="B9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75">
       <c r="A12" s="46"/>
-      <c r="D12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="D13" t="s">
-        <v>199</v>
-      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75">
+      <c r="A13" s="46"/>
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:2" ht="15.75">
+      <c r="A14" s="46"/>
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:2" ht="15.75">
+      <c r="A15" s="46"/>
+      <c r="B15" s="7"/>
+    </row>
+    <row r="16" spans="1:2" ht="15.75">
+      <c r="A16" s="46"/>
+      <c r="B16" s="7"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="46"/>
+      <c r="B17" s="7"/>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="46"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="46"/>
+      <c r="B19" s="7"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="46"/>
+      <c r="B20" s="7"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -3971,250 +3956,315 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J32"/>
+  <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="10" max="10" width="56" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="52" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="46"/>
+      <c r="B3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="46"/>
+      <c r="B4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="46" t="s">
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" t="s">
         <v>198</v>
       </c>
-      <c r="J2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="15">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="46"/>
-      <c r="J3" t="s">
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15">
-      <c r="A4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="46"/>
-      <c r="J4" t="s">
+    <row r="17" spans="1:2" ht="15">
+      <c r="A17" s="46"/>
+      <c r="B17" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J5" t="s">
+    <row r="18" spans="1:2" ht="15">
+      <c r="A18" s="46"/>
+      <c r="B18" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="19" spans="1:2" ht="15">
+      <c r="A19" s="46"/>
+      <c r="B19" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15">
-      <c r="I7" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J7" t="s">
+    <row r="20" spans="1:2" ht="15">
+      <c r="A20" s="46"/>
+      <c r="B20" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15">
-      <c r="I8" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J8" t="s">
+    <row r="21" spans="1:2" ht="15">
+      <c r="A21" s="46"/>
+      <c r="B21" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15">
-      <c r="I9" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J9" t="s">
+    <row r="22" spans="1:2" ht="15">
+      <c r="A22" s="46"/>
+      <c r="B22" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15">
-      <c r="A10" s="1"/>
-      <c r="I10" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J10" t="s">
+    <row r="23" spans="1:2" ht="15">
+      <c r="A23" s="46"/>
+      <c r="B23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15">
-      <c r="I11" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J11" t="s">
+    <row r="24" spans="1:2" ht="15">
+      <c r="A24" s="46"/>
+      <c r="B24" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15">
-      <c r="I12" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J12" t="s">
+    <row r="25" spans="1:2" ht="15">
+      <c r="A25" s="46"/>
+      <c r="B25" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15">
-      <c r="I13" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J13" t="s">
+    <row r="26" spans="1:2" ht="15">
+      <c r="A26" s="46"/>
+      <c r="B26" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15">
-      <c r="I14" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J14" t="s">
+    <row r="27" spans="1:2" ht="15">
+      <c r="A27" s="46"/>
+      <c r="B27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15">
-      <c r="I15" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" t="s">
+    <row r="28" spans="1:2" ht="15">
+      <c r="A28" s="46"/>
+      <c r="B28" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15">
-      <c r="I16" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J16" t="s">
+    <row r="29" spans="1:2" ht="15">
+      <c r="A29" s="46"/>
+      <c r="B29" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="17" spans="9:10" ht="15">
-      <c r="I17" s="46"/>
-      <c r="J17" t="s">
+    <row r="30" spans="1:2" ht="15">
+      <c r="A30" s="46"/>
+      <c r="B30" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="18" spans="9:10" ht="15">
-      <c r="I18" s="46"/>
-      <c r="J18" t="s">
+    <row r="31" spans="1:2" ht="15">
+      <c r="A31" s="46" t="s">
+        <v>186</v>
+      </c>
+      <c r="B31" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="19" spans="9:10" ht="15">
-      <c r="I19" s="46"/>
-      <c r="J19" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="9:10" ht="15">
-      <c r="I20" s="46"/>
-      <c r="J20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="9:10" ht="15">
-      <c r="I21" s="46"/>
-      <c r="J21" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="22" spans="9:10" ht="15">
-      <c r="I22" s="46"/>
-      <c r="J22" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="23" spans="9:10" ht="15">
-      <c r="I23" s="46"/>
-      <c r="J23" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="24" spans="9:10" ht="15">
-      <c r="I24" s="46"/>
-      <c r="J24" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="9:10" ht="15">
-      <c r="I25" s="46"/>
-      <c r="J25" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="26" spans="9:10" ht="15">
-      <c r="I26" s="46"/>
-      <c r="J26" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="27" spans="9:10" ht="15">
-      <c r="I27" s="46"/>
-      <c r="J27" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="9:10" ht="15">
-      <c r="I28" s="46"/>
-      <c r="J28" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="9:10" ht="15">
-      <c r="I29" s="46"/>
-      <c r="J29" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="30" spans="9:10" ht="15">
-      <c r="I30" s="46"/>
-      <c r="J30" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="31" spans="9:10" ht="15">
-      <c r="I31" s="46"/>
-      <c r="J31" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="32" spans="9:10" ht="15">
-      <c r="I32" s="46" t="s">
-        <v>199</v>
-      </c>
-      <c r="J32" t="s">
-        <v>229</v>
-      </c>
+    <row r="32" spans="1:2" ht="15">
+      <c r="A32" s="46"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="46"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="46"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="46"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="46"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="46"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="46"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="46"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="46"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="46"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="46"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="46"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="46"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="46"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="46"/>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="46"/>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="46"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="46"/>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="46"/>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="46"/>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="46"/>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="46"/>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="46"/>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="46"/>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="46"/>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="46"/>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="46"/>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="46"/>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4240,112 +4290,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C2" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
         <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
         <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
         <v>58</v>
-      </c>
-      <c r="C9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -4377,16 +4427,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -4394,13 +4444,13 @@
         <v>40987</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -4408,13 +4458,13 @@
         <v>40995</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -4422,13 +4472,13 @@
         <v>41037</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -4436,13 +4486,13 @@
         <v>41205</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -4450,37 +4500,37 @@
         <v>40987</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -4488,7 +4538,7 @@
         <v>41128</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -4519,26 +4569,26 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4546,50 +4596,50 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -4597,76 +4647,76 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="B16" s="46" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="B17" s="46" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="B18" s="46" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="B19" s="46" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="B20" s="46" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="B21" s="46" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="B22" s="46" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="B23" s="46" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="B24" s="46" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4674,35 +4724,35 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="46" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B29" s="46" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C29" s="46" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="46" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C30" s="46" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
@@ -4776,53 +4826,53 @@
   <dimension ref="A2:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="169.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="85.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="46" customFormat="1" ht="15">
-      <c r="A3" s="46" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="46" customFormat="1" ht="15">
-      <c r="A4" s="46" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="46" customFormat="1" ht="15">
-      <c r="A5" s="46" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="46" customFormat="1" ht="15">
-      <c r="A6" s="46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="46" customFormat="1" ht="15">
-      <c r="A7" s="46" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="9" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="10" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="11" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="12" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="13" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="14" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="15" spans="1:1" s="46" customFormat="1" ht="15"/>
-    <row r="16" spans="1:1" s="46" customFormat="1" ht="15"/>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" s="7" customFormat="1" ht="15.75">
+      <c r="A3" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" s="7" customFormat="1" ht="15.75">
+      <c r="A4" s="7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" s="7" customFormat="1" ht="15.75">
+      <c r="A5" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" s="7" customFormat="1" ht="15.75">
+      <c r="A6" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" s="7" customFormat="1" ht="15.75">
+      <c r="A7" s="7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="9" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="10" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="11" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="12" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="13" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="14" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="15" spans="1:1" s="7" customFormat="1" ht="15.75"/>
+    <row r="16" spans="1:1" s="7" customFormat="1" ht="15.75"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -4846,22 +4896,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -4887,12 +4937,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -4924,96 +4974,96 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D1" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="D2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="D4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D5" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="D7" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="D8" t="s">
-        <v>305</v>
+        <v>289</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>306</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -5048,16 +5098,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6110,95 +6160,150 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="78.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5">
+    <row r="1" spans="1:9">
+      <c r="B1" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>313</v>
       </c>
       <c r="C2" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="D2" t="s">
-        <v>166</v>
+        <v>315</v>
       </c>
       <c r="E2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>316</v>
+      </c>
+      <c r="F2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" t="s">
+        <v>156</v>
+      </c>
+      <c r="I2" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>167</v>
-      </c>
-      <c r="B3" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" t="s">
-        <v>168</v>
-      </c>
-      <c r="D3" s="4">
+        <v>159</v>
+      </c>
+      <c r="B3" s="58">
+        <v>1</v>
+      </c>
+      <c r="C3" s="58">
+        <v>4</v>
+      </c>
+      <c r="D3" s="58">
+        <v>2</v>
+      </c>
+      <c r="E3" s="58">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="51" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>172</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>160</v>
+      </c>
+      <c r="B4" s="58">
+        <v>2</v>
+      </c>
+      <c r="C4" s="58">
+        <v>3</v>
+      </c>
+      <c r="D4" s="58">
+        <v>3</v>
+      </c>
+      <c r="E4" s="58">
+        <v>3</v>
+      </c>
+      <c r="F4" s="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>291</v>
+      </c>
+      <c r="B5" s="58">
+        <v>4</v>
+      </c>
+      <c r="C5" s="58">
+        <v>2</v>
+      </c>
+      <c r="D5" s="58">
+        <v>4</v>
+      </c>
+      <c r="E5" s="58">
+        <v>4</v>
+      </c>
+      <c r="F5" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6" s="51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="B7" s="51" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>292</v>
+      </c>
+      <c r="B6" s="58">
+        <v>4</v>
+      </c>
+      <c r="C6" s="58">
+        <v>4</v>
+      </c>
+      <c r="D6" s="58">
+        <v>6</v>
+      </c>
+      <c r="E6" s="58">
+        <v>3</v>
+      </c>
+      <c r="F6" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6215,7 +6320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6230,32 +6335,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6263,13 +6368,13 @@
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="C3" s="46">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6277,11 +6382,11 @@
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>312</v>
+        <v>296</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6289,11 +6394,11 @@
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="1" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6301,11 +6406,11 @@
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="1" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6313,11 +6418,11 @@
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6325,25 +6430,25 @@
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="1" t="s">
-        <v>320</v>
+        <v>304</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="1" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6351,25 +6456,25 @@
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="1" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="1" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6377,11 +6482,11 @@
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="1" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6389,11 +6494,11 @@
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="1" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6401,23 +6506,23 @@
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="1" t="s">
-        <v>326</v>
+        <v>310</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="46"/>
       <c r="D15" s="1" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6461,41 +6566,41 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -6523,71 +6628,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="B4" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="B5" t="s">
-        <v>236</v>
+        <v>222</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>237</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>227</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="B9" t="s">
-        <v>244</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -6612,32 +6717,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6662,22 +6767,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -6702,17 +6807,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6738,27 +6843,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -6787,82 +6892,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>246</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -6900,36 +7005,36 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="26" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="24" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C3" s="15">
         <v>153.1</v>
@@ -6959,7 +7064,7 @@
     <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="25"/>
       <c r="B4" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C4" s="11">
         <v>90.3</v>
@@ -6987,10 +7092,10 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="24" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C5" s="11">
         <v>13.5</v>
@@ -7020,7 +7125,7 @@
     <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="A6" s="25"/>
       <c r="B6" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C6" s="11">
         <v>4.3</v>
@@ -7048,10 +7153,10 @@
     </row>
     <row r="7" spans="1:11" ht="24.75" thickBot="1">
       <c r="A7" s="24" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C7" s="11">
         <v>26.6</v>
@@ -7080,7 +7185,7 @@
     <row r="8" spans="1:11" ht="16.5" thickBot="1">
       <c r="A8" s="25"/>
       <c r="B8" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C8" s="11">
         <v>11.7</v>
@@ -7108,10 +7213,10 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" thickBot="1">
       <c r="A9" s="24" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C9" s="11">
         <v>12.7</v>
@@ -7140,7 +7245,7 @@
     <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="25"/>
       <c r="B10" s="12" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C10" s="11">
         <v>10.7</v>
@@ -7168,28 +7273,28 @@
     </row>
     <row r="12" spans="1:11" ht="26.25">
       <c r="A12" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12" s="54" t="str">
+        <v>233</v>
+      </c>
+      <c r="B12" s="56" t="str">
         <f>'Assessment Information'!D4</f>
         <v>male</v>
       </c>
-      <c r="C12" s="55"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="7" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.25">
       <c r="A13" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="52">
+      <c r="B13" s="54">
         <f>'Assessment Information'!B4</f>
         <v>39</v>
       </c>
-      <c r="C13" s="53"/>
+      <c r="C13" s="55"/>
       <c r="D13" s="7" t="s">
-        <v>245</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -7232,16 +7337,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8303,24 +8408,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="J1" s="44" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="43" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
@@ -8496,18 +8601,18 @@
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="43" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -8654,7 +8759,7 @@
         <v>41.7</v>
       </c>
       <c r="E13" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
       <c r="F13" s="30">
         <f>SUM(B13:D13)/3</f>
@@ -8677,7 +8782,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="F15" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -8716,16 +8821,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9795,16 +9900,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10874,16 +10979,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11953,16 +12058,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13032,16 +13137,16 @@
         <v>13</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>256</v>
+        <v>242</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14111,7 +14216,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">

--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="954" firstSheet="8" activeTab="19"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="FemaleHand grip" sheetId="22" state="hidden" r:id="rId1"/>
@@ -15,35 +15,42 @@
     <sheet name="FemaleTip Pinch" sheetId="27" state="hidden" r:id="rId6"/>
     <sheet name="MalePalmer Pinch" sheetId="28" state="hidden" r:id="rId7"/>
     <sheet name="FemalePalmer Pinch" sheetId="29" state="hidden" r:id="rId8"/>
-    <sheet name="Configuration" sheetId="1" r:id="rId9"/>
-    <sheet name="Assessment Information" sheetId="2" r:id="rId10"/>
-    <sheet name="Purposes" sheetId="3" r:id="rId11"/>
-    <sheet name="Methods used" sheetId="4" r:id="rId12"/>
-    <sheet name="Documentation Received" sheetId="5" r:id="rId13"/>
-    <sheet name="Medical Information" sheetId="6" r:id="rId14"/>
-    <sheet name="Background" sheetId="7" r:id="rId15"/>
-    <sheet name="Main Complaints" sheetId="8" r:id="rId16"/>
-    <sheet name="Consistency performance" sheetId="9" r:id="rId17"/>
-    <sheet name="Physical results" sheetId="10" r:id="rId18"/>
-    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId19"/>
-    <sheet name="Thurstone" sheetId="12" r:id="rId20"/>
-    <sheet name="Rivermead" sheetId="13" r:id="rId21"/>
-    <sheet name="Cam" sheetId="14" r:id="rId22"/>
-    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId23"/>
-    <sheet name="Cooperation effort" sheetId="16" r:id="rId24"/>
-    <sheet name="General Observations" sheetId="17" r:id="rId25"/>
-    <sheet name="Pain report" sheetId="18" r:id="rId26"/>
-    <sheet name="Safety" sheetId="19" r:id="rId27"/>
-    <sheet name="Musculoskeletal" sheetId="30" r:id="rId28"/>
-    <sheet name="grip pinch strength" sheetId="21" r:id="rId29"/>
-    <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId30"/>
+    <sheet name="Start" sheetId="33" r:id="rId9"/>
+    <sheet name="Configuration" sheetId="1" r:id="rId10"/>
+    <sheet name="Assessment Information" sheetId="2" r:id="rId11"/>
+    <sheet name="Purposes" sheetId="3" r:id="rId12"/>
+    <sheet name="Methods used" sheetId="4" r:id="rId13"/>
+    <sheet name="Documentation Received" sheetId="5" r:id="rId14"/>
+    <sheet name="Medical Information" sheetId="6" r:id="rId15"/>
+    <sheet name="Background" sheetId="7" r:id="rId16"/>
+    <sheet name="Main Complaints" sheetId="8" r:id="rId17"/>
+    <sheet name="Consistency performance" sheetId="9" r:id="rId18"/>
+    <sheet name="Physical results" sheetId="10" r:id="rId19"/>
+    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId20"/>
+    <sheet name="Thurstone" sheetId="12" r:id="rId21"/>
+    <sheet name="Rivermead" sheetId="13" r:id="rId22"/>
+    <sheet name="Cam" sheetId="14" r:id="rId23"/>
+    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId24"/>
+    <sheet name="Cooperation effort" sheetId="16" r:id="rId25"/>
+    <sheet name="General Observations" sheetId="17" r:id="rId26"/>
+    <sheet name="Pain report" sheetId="18" r:id="rId27"/>
+    <sheet name="Safety" sheetId="19" r:id="rId28"/>
+    <sheet name="Musculoskeletal" sheetId="30" r:id="rId29"/>
+    <sheet name="grip pinch strength" sheetId="21" r:id="rId30"/>
+    <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId31"/>
+    <sheet name="ADL" sheetId="32" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MaleHand grip'!$A$1:$E$62</definedName>
     <definedName name="age">'Assessment Information'!$B$4</definedName>
+    <definedName name="ClientFirstName">'Assessment Information'!$B$1</definedName>
+    <definedName name="ClientGender">'Assessment Information'!$D$4</definedName>
+    <definedName name="ClientLastName">ADL!$C$3</definedName>
+    <definedName name="ClientSurname">'Assessment Information'!$B$2</definedName>
+    <definedName name="ClientTitle">'Assessment Information'!$B$17</definedName>
     <definedName name="david">'Methods used'!$B$3:$B$32</definedName>
-    <definedName name="OLE_LINK19" localSheetId="14">Background!#REF!</definedName>
-    <definedName name="OLE_LINK21" localSheetId="14">Background!#REF!</definedName>
+    <definedName name="OLE_LINK19" localSheetId="15">Background!#REF!</definedName>
+    <definedName name="OLE_LINK21" localSheetId="15">Background!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
@@ -55,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="348">
   <si>
     <t>Therapist</t>
   </si>
@@ -85,12 +92,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>ClientName</t>
-  </si>
-  <si>
-    <t>John abrahams</t>
   </si>
   <si>
     <t>IDNumber</t>
@@ -1010,6 +1011,102 @@
   </si>
   <si>
     <t>TimeNormn</t>
+  </si>
+  <si>
+    <t>Assessment Information</t>
+  </si>
+  <si>
+    <t>Purpose of Report</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>Eating</t>
+  </si>
+  <si>
+    <t>Dressing</t>
+  </si>
+  <si>
+    <t>Toileting</t>
+  </si>
+  <si>
+    <t>Showering and bathing</t>
+  </si>
+  <si>
+    <t>Sleeping</t>
+  </si>
+  <si>
+    <t>Home maintenance and meal preparation</t>
+  </si>
+  <si>
+    <t>Grooming</t>
+  </si>
+  <si>
+    <t>Communication on telephone or written</t>
+  </si>
+  <si>
+    <t>[[Client]] reported independence in eating at present</t>
+  </si>
+  <si>
+    <t>[[Client]] reported independence in the performance of dressing tasks.</t>
+  </si>
+  <si>
+    <t>[[Client]] reported intact bowel and bladder control and independence in toileting.</t>
+  </si>
+  <si>
+    <t>[[Client]] reported independence in the performance of all grooming tasks at present. His grooming was observed to be adequate.</t>
+  </si>
+  <si>
+    <t>The client’s wife and domestic worker are currently performing all home maintenance and meal preparation tasks at present. Mr. Van der Merwe reported that has no energy or interest to carry out homecare tasks.</t>
+  </si>
+  <si>
+    <t>Managing money or using an ATM</t>
+  </si>
+  <si>
+    <t>Shopping/ carrying shopping</t>
+  </si>
+  <si>
+    <t>Accessing transport</t>
+  </si>
+  <si>
+    <t>Leisure activities</t>
+  </si>
+  <si>
+    <t>[[Client]] reported independence in the performance of washing tasks.</t>
+  </si>
+  <si>
+    <t>[[Client]]  reported an adequate sleeping pattern.</t>
+  </si>
+  <si>
+    <t>[[Client]]  was assessed to be independent with reading and writing tasks when completing the assessment forms. He was furthermore observed to be able to use a mobile phone with independence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Client]]  reported that she is independent in managing her finances at present. </t>
+  </si>
+  <si>
+    <t>[[Client]]  reported that she is able to perform shopping tasks with independence</t>
+  </si>
+  <si>
+    <t>[[Client]]  is dependent on public transport and her uncle’s private car for transport</t>
+  </si>
+  <si>
+    <t>[[Client]]  reported that prior to her removal of her tumor she used to attend gym classes every evening. She noted that she plans to resume her exercising when she gets back into her normal routine</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Client Surname</t>
+  </si>
+  <si>
+    <t>Client First Name</t>
+  </si>
+  <si>
+    <t>Abrahams</t>
+  </si>
+  <si>
+    <t>John</t>
   </si>
 </sst>
 </file>
@@ -1024,7 +1121,7 @@
     <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="169" formatCode="m:ss"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1111,6 +1208,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1389,12 +1508,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1483,6 +1603,10 @@
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="7" borderId="18" xfId="2" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1494,9 +1618,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Input" xfId="2" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
@@ -1656,11 +1780,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107158912"/>
-        <c:axId val="107202048"/>
+        <c:axId val="108958464"/>
+        <c:axId val="108960384"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107158912"/>
+        <c:axId val="108958464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1695,7 +1819,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107202048"/>
+        <c:crossAx val="108960384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1705,7 +1829,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107202048"/>
+        <c:axId val="108960384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1874,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107158912"/>
+        <c:crossAx val="108958464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1937,11 +2061,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="107361024"/>
-        <c:axId val="107362944"/>
+        <c:axId val="108980096"/>
+        <c:axId val="109449216"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="107361024"/>
+        <c:axId val="108980096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1976,7 +2100,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107362944"/>
+        <c:crossAx val="109449216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1986,7 +2110,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="107362944"/>
+        <c:axId val="109449216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2031,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="107361024"/>
+        <c:crossAx val="108980096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2545,19 +2669,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3609,10 +3733,87 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="46"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3623,19 +3824,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2"/>
+      <c r="A1" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>344</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>11</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" s="47">
         <v>7507126057089</v>
@@ -3643,29 +3849,29 @@
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="46">
         <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="46">
         <v>3084530458</v>
@@ -3673,39 +3879,39 @@
     </row>
     <row r="7" spans="1:9" ht="15">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B7" s="48">
         <f ca="1">NOW()</f>
-        <v>41928.740255671299</v>
+        <v>41929.686862037037</v>
       </c>
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:9" ht="15">
       <c r="A8" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B8" s="46"/>
       <c r="F8" s="22"/>
     </row>
     <row r="9" spans="1:9" ht="15">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="I9" s="21"/>
     </row>
     <row r="10" spans="1:9" ht="15">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="46"/>
     </row>
     <row r="11" spans="1:9" ht="15">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" s="46">
         <v>2</v>
@@ -3713,7 +3919,7 @@
     </row>
     <row r="12" spans="1:9" ht="15">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="46">
         <v>0</v>
@@ -3721,53 +3927,53 @@
     </row>
     <row r="13" spans="1:9" ht="15">
       <c r="A13" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="24.75">
       <c r="A16" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="C18" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3777,15 +3983,15 @@
     </row>
     <row r="20" spans="1:4">
       <c r="C20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15">
       <c r="C21" s="46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D21" s="46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15">
@@ -3820,7 +4026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B20"/>
   <sheetViews>
@@ -3836,70 +4042,70 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="46"/>
       <c r="B3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="46"/>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="46"/>
       <c r="B6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="46"/>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="46"/>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="46"/>
       <c r="B9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -3954,7 +4160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B60"/>
   <sheetViews>
@@ -3969,210 +4175,210 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="52" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="46"/>
       <c r="B3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="46"/>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="46"/>
       <c r="B17" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="46"/>
       <c r="B18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="46"/>
       <c r="B19" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="46"/>
       <c r="B20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="46"/>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="46"/>
       <c r="B22" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="46"/>
       <c r="B23" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="46"/>
       <c r="B24" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="46"/>
       <c r="B25" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="46"/>
       <c r="B26" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="46"/>
       <c r="B27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="46"/>
       <c r="B28" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="46"/>
       <c r="B29" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="46"/>
       <c r="B30" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="46" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -4273,7 +4479,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
@@ -4290,112 +4496,112 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -4409,7 +4615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -4427,16 +4633,16 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15">
@@ -4444,13 +4650,13 @@
         <v>40987</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="46" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
@@ -4458,13 +4664,13 @@
         <v>40995</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E3" s="46" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
@@ -4472,13 +4678,13 @@
         <v>41037</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
@@ -4486,13 +4692,13 @@
         <v>41205</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="46" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
@@ -4500,37 +4706,37 @@
         <v>40987</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E6" s="46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="A7" s="49"/>
       <c r="B7" s="46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E7" s="46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="49"/>
       <c r="B8" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15">
@@ -4538,7 +4744,7 @@
         <v>41128</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -4552,7 +4758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C41"/>
   <sheetViews>
@@ -4569,26 +4775,26 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4596,50 +4802,50 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B8" s="46" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B10" s="46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -4647,76 +4853,76 @@
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="46" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="B16" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="B17" s="46" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="B18" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="B19" s="46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
       <c r="B20" s="46" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="B21" s="46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="B22" s="46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="B23" s="46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="B24" s="46" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -4724,35 +4930,35 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="B29" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="46" t="s">
         <v>122</v>
-      </c>
-      <c r="B29" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" s="46" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="46" t="s">
         <v>125</v>
-      </c>
-      <c r="B30" s="46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30" s="46" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
@@ -4821,7 +5027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A16"/>
   <sheetViews>
@@ -4836,32 +5042,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1" s="7" customFormat="1" ht="15.75">
       <c r="A3" s="7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:1" s="7" customFormat="1" ht="15.75">
       <c r="A4" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:1" s="7" customFormat="1" ht="15.75">
       <c r="A5" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:1" s="7" customFormat="1" ht="15.75">
       <c r="A6" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:1" s="7" customFormat="1" ht="15.75">
       <c r="A7" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:1" s="7" customFormat="1" ht="15.75"/>
@@ -4884,7 +5090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A5"/>
   <sheetViews>
@@ -4896,53 +5102,22 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -4958,116 +5133,27 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A2:A3"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <cols>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>135</v>
-      </c>
-      <c r="D1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
+    <row r="2" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D3" t="s">
-        <v>142</v>
-      </c>
-      <c r="E3" s="46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E4" s="46" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" t="s">
-        <v>148</v>
-      </c>
-      <c r="E5" s="46" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="D7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="D8" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="50" t="s">
-        <v>290</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5095,19 +5181,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6160,9 +6246,129 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E3" s="46" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15">
+      <c r="A4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" t="s">
+        <v>146</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+      <c r="B6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="D7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="D8" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -6179,55 +6385,55 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B2" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" t="s">
         <v>313</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>314</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
         <v>315</v>
-      </c>
-      <c r="E2" t="s">
-        <v>316</v>
-      </c>
-      <c r="F2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="58">
+        <v>157</v>
+      </c>
+      <c r="B3" s="54">
         <v>1</v>
       </c>
-      <c r="C3" s="58">
+      <c r="C3" s="54">
         <v>4</v>
       </c>
-      <c r="D3" s="58">
+      <c r="D3" s="54">
         <v>2</v>
       </c>
-      <c r="E3" s="58">
+      <c r="E3" s="54">
         <v>0</v>
       </c>
       <c r="F3" s="47">
@@ -6236,18 +6442,18 @@
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="58">
+        <v>158</v>
+      </c>
+      <c r="B4" s="54">
         <v>2</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="54">
         <v>3</v>
       </c>
-      <c r="D4" s="58">
+      <c r="D4" s="54">
         <v>3</v>
       </c>
-      <c r="E4" s="58">
+      <c r="E4" s="54">
         <v>3</v>
       </c>
       <c r="F4" s="47">
@@ -6256,18 +6462,18 @@
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
-        <v>291</v>
-      </c>
-      <c r="B5" s="58">
+        <v>289</v>
+      </c>
+      <c r="B5" s="54">
         <v>4</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="54">
         <v>2</v>
       </c>
-      <c r="D5" s="58">
+      <c r="D5" s="54">
         <v>4</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="54">
         <v>4</v>
       </c>
       <c r="F5" s="47">
@@ -6276,18 +6482,18 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
-        <v>292</v>
-      </c>
-      <c r="B6" s="58">
+        <v>290</v>
+      </c>
+      <c r="B6" s="54">
         <v>4</v>
       </c>
-      <c r="C6" s="58">
+      <c r="C6" s="54">
         <v>4</v>
       </c>
-      <c r="D6" s="58">
+      <c r="D6" s="54">
         <v>6</v>
       </c>
-      <c r="E6" s="58">
+      <c r="E6" s="54">
         <v>3</v>
       </c>
       <c r="F6" s="47">
@@ -6316,11 +6522,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -6335,32 +6541,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C2" s="46">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6368,13 +6574,13 @@
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C3" s="46">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -6382,11 +6588,11 @@
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -6394,11 +6600,11 @@
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C5" s="46"/>
       <c r="D5" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6406,11 +6612,11 @@
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C6" s="46"/>
       <c r="D6" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6418,11 +6624,11 @@
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C7" s="46"/>
       <c r="D7" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6430,25 +6636,25 @@
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C8" s="46"/>
       <c r="D8" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C9" s="46"/>
       <c r="D9" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -6456,25 +6662,25 @@
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C10" s="46"/>
       <c r="D10" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C11" s="46"/>
       <c r="D11" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -6482,11 +6688,11 @@
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -6494,11 +6700,11 @@
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -6506,23 +6712,23 @@
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="46"/>
       <c r="D15" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -6554,53 +6760,51 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J44" sqref="J44"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>167</v>
       </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6613,7 +6817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -6628,121 +6832,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B3" t="s">
         <v>216</v>
-      </c>
-      <c r="B3" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B4" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B5" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B8" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -6757,7 +6911,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -6767,22 +6921,32 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6797,6 +6961,46 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6807,17 +7011,17 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6831,7 +7035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A6"/>
   <sheetViews>
@@ -6843,27 +7047,27 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6876,7 +7080,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -6892,423 +7096,87 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B4" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B5" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="10.85546875" style="7"/>
-    <col min="2" max="2" width="6.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10.85546875" style="7"/>
-    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="7"/>
-    <col min="9" max="10" width="0" style="7" hidden="1" customWidth="1"/>
-    <col min="11" max="16384" width="10.85546875" style="7"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
-    <row r="2" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A2" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="27" t="s">
-        <v>265</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>266</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>268</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="G2" s="17" t="s">
-        <v>72</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A3" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C3" s="15">
-        <v>153.1</v>
-      </c>
-      <c r="D3" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J3&amp;"!A:A"),INDIRECT(J3&amp;"!B:B"))</f>
-        <v>119.7</v>
-      </c>
-      <c r="E3" s="10">
-        <f ca="1">LOOKUP(B13,INDIRECT(J3&amp;"!A:A"),INDIRECT(J3&amp;"!c:c"))</f>
-        <v>24</v>
-      </c>
-      <c r="F3" s="10">
-        <f t="shared" ref="F3:F10" ca="1" si="0">(C3-D3)/E3</f>
-        <v>1.3916666666666664</v>
-      </c>
-      <c r="G3" s="9" t="str">
-        <f t="shared" ref="G3:G10" ca="1" si="1">IF(F3&lt;-2,"Below Average",IF(F3&gt;2,"Above Average","Average"))</f>
-        <v>Average</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A3,"'")</f>
-        <v>'maleHand grip'</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A4" s="25"/>
-      <c r="B4" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C4" s="11">
-        <v>90.3</v>
-      </c>
-      <c r="D4" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J4&amp;"!A:A"),INDIRECT(J4&amp;"!d:d"))</f>
-        <v>112.9</v>
-      </c>
-      <c r="E4" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J4&amp;"!A:A"),INDIRECT(J4&amp;"!E:E"))</f>
-        <v>21.7</v>
-      </c>
-      <c r="F4" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.0414746543778806</v>
-      </c>
-      <c r="G4" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Average</v>
-      </c>
-      <c r="J4" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A3,"'")</f>
-        <v>'maleHand grip'</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A5" s="24" t="s">
-        <v>238</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C5" s="11">
-        <v>13.5</v>
-      </c>
-      <c r="D5" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J5&amp;"!A:A"),INDIRECT(J5&amp;"!B:B"))</f>
-        <v>18</v>
-      </c>
-      <c r="E5" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J5&amp;"!A:A"),INDIRECT(J5&amp;"!C:C"))</f>
-        <v>3.6</v>
-      </c>
-      <c r="F5" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-1.25</v>
-      </c>
-      <c r="G5" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Average</v>
-      </c>
-      <c r="J5" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A5,"'")</f>
-        <v>'maleTip pinch'</v>
-      </c>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A6" s="25"/>
-      <c r="B6" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C6" s="11">
-        <v>4.3</v>
-      </c>
-      <c r="D6" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J6&amp;"!A:A"),INDIRECT(J6&amp;"!D:D"))</f>
-        <v>17.7</v>
-      </c>
-      <c r="E6" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J6&amp;"!A:A"),INDIRECT(J6&amp;"!E:E"))</f>
-        <v>3.8</v>
-      </c>
-      <c r="F6" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.5263157894736841</v>
-      </c>
-      <c r="G6" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Below Average</v>
-      </c>
-      <c r="J6" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A5,"'")</f>
-        <v>'maleTip pinch'</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="24.75" thickBot="1">
-      <c r="A7" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C7" s="11">
-        <v>26.6</v>
-      </c>
-      <c r="D7" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J7&amp;"!A:A"),INDIRECT(J7&amp;"!B:B"))</f>
-        <v>26.1</v>
-      </c>
-      <c r="E7" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J7&amp;"!A:A"),INDIRECT(J7&amp;"!C:C"))</f>
-        <v>3.2</v>
-      </c>
-      <c r="F7" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.15625</v>
-      </c>
-      <c r="G7" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Average</v>
-      </c>
-      <c r="J7" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A7,"'")</f>
-        <v>'maleLateral Pinch'</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C8" s="11">
-        <v>11.7</v>
-      </c>
-      <c r="D8" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J8&amp;"!A:A"),INDIRECT(J8&amp;"!D:D"))</f>
-        <v>25.6</v>
-      </c>
-      <c r="E8" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J8&amp;"!A:A"),INDIRECT(J8&amp;"!E:E"))</f>
-        <v>3.9</v>
-      </c>
-      <c r="F8" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.5641025641025648</v>
-      </c>
-      <c r="G8" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Below Average</v>
-      </c>
-      <c r="J8" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A7,"'")</f>
-        <v>'maleLateral Pinch'</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="24.75" thickBot="1">
-      <c r="A9" s="24" t="s">
-        <v>236</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="11">
-        <v>12.7</v>
-      </c>
-      <c r="D9" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J9&amp;"!A:A"),INDIRECT(J9&amp;"!B:B"))</f>
-        <v>26.2</v>
-      </c>
-      <c r="E9" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J9&amp;"!A:A"),INDIRECT(J9&amp;"!C:C"))</f>
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="F9" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-3.2926829268292686</v>
-      </c>
-      <c r="G9" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Below Average</v>
-      </c>
-      <c r="J9" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A9,"'")</f>
-        <v>'malePalmer Pinch'</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="16.5" thickBot="1">
-      <c r="A10" s="25"/>
-      <c r="B10" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C10" s="11">
-        <v>10.7</v>
-      </c>
-      <c r="D10" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J10&amp;"!A:A"),INDIRECT(J10&amp;"!D:D"))</f>
-        <v>25.9</v>
-      </c>
-      <c r="E10" s="10">
-        <f ca="1">LOOKUP($B$13,INDIRECT(J10&amp;"!A:A"),INDIRECT(J10&amp;"!e:e"))</f>
-        <v>5.4</v>
-      </c>
-      <c r="F10" s="10">
-        <f t="shared" ca="1" si="0"/>
-        <v>-2.8148148148148144</v>
-      </c>
-      <c r="G10" s="9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>Below Average</v>
-      </c>
-      <c r="J10" s="7" t="str">
-        <f>CONCATENATE("'",$B$12,A9,"'")</f>
-        <v>'malePalmer Pinch'</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="26.25">
-      <c r="A12" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="56" t="str">
-        <f>'Assessment Information'!D4</f>
-        <v>male</v>
-      </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="7" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="26.25">
-      <c r="A13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="54">
-        <f>'Assessment Information'!B4</f>
-        <v>39</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="7" t="s">
-        <v>231</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B12:C12"/>
-  </mergeCells>
-  <conditionalFormatting sqref="G3:G10">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
-      <formula>NOT(ISERROR(SEARCH("Below Average",G3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -7334,19 +7202,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8398,6 +8266,342 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" style="7"/>
+    <col min="2" max="2" width="6.28515625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10.85546875" style="7"/>
+    <col min="7" max="7" width="13.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="7"/>
+    <col min="9" max="10" width="0" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.85546875" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A2" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>263</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A3" s="24" t="s">
+        <v>237</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="15">
+        <v>153.1</v>
+      </c>
+      <c r="D3" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J3&amp;"!A:A"),INDIRECT(J3&amp;"!B:B"))</f>
+        <v>119.7</v>
+      </c>
+      <c r="E3" s="10">
+        <f ca="1">LOOKUP(B13,INDIRECT(J3&amp;"!A:A"),INDIRECT(J3&amp;"!c:c"))</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" ref="F3:F10" ca="1" si="0">(C3-D3)/E3</f>
+        <v>1.3916666666666664</v>
+      </c>
+      <c r="G3" s="9" t="str">
+        <f t="shared" ref="G3:G10" ca="1" si="1">IF(F3&lt;-2,"Below Average",IF(F3&gt;2,"Above Average","Average"))</f>
+        <v>Average</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A3,"'")</f>
+        <v>'maleHand grip'</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A4" s="25"/>
+      <c r="B4" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="11">
+        <v>90.3</v>
+      </c>
+      <c r="D4" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J4&amp;"!A:A"),INDIRECT(J4&amp;"!d:d"))</f>
+        <v>112.9</v>
+      </c>
+      <c r="E4" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J4&amp;"!A:A"),INDIRECT(J4&amp;"!E:E"))</f>
+        <v>21.7</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.0414746543778806</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Average</v>
+      </c>
+      <c r="J4" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A3,"'")</f>
+        <v>'maleHand grip'</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A5" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="11">
+        <v>13.5</v>
+      </c>
+      <c r="D5" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J5&amp;"!A:A"),INDIRECT(J5&amp;"!B:B"))</f>
+        <v>18</v>
+      </c>
+      <c r="E5" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J5&amp;"!A:A"),INDIRECT(J5&amp;"!C:C"))</f>
+        <v>3.6</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-1.25</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Average</v>
+      </c>
+      <c r="J5" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A5,"'")</f>
+        <v>'maleTip pinch'</v>
+      </c>
+      <c r="K5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A6" s="25"/>
+      <c r="B6" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="11">
+        <v>4.3</v>
+      </c>
+      <c r="D6" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J6&amp;"!A:A"),INDIRECT(J6&amp;"!D:D"))</f>
+        <v>17.7</v>
+      </c>
+      <c r="E6" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J6&amp;"!A:A"),INDIRECT(J6&amp;"!E:E"))</f>
+        <v>3.8</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5263157894736841</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Below Average</v>
+      </c>
+      <c r="J6" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A5,"'")</f>
+        <v>'maleTip pinch'</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="24.75" thickBot="1">
+      <c r="A7" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="11">
+        <v>26.6</v>
+      </c>
+      <c r="D7" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J7&amp;"!A:A"),INDIRECT(J7&amp;"!B:B"))</f>
+        <v>26.1</v>
+      </c>
+      <c r="E7" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J7&amp;"!A:A"),INDIRECT(J7&amp;"!C:C"))</f>
+        <v>3.2</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15625</v>
+      </c>
+      <c r="G7" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Average</v>
+      </c>
+      <c r="J7" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A7,"'")</f>
+        <v>'maleLateral Pinch'</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A8" s="25"/>
+      <c r="B8" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C8" s="11">
+        <v>11.7</v>
+      </c>
+      <c r="D8" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J8&amp;"!A:A"),INDIRECT(J8&amp;"!D:D"))</f>
+        <v>25.6</v>
+      </c>
+      <c r="E8" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J8&amp;"!A:A"),INDIRECT(J8&amp;"!E:E"))</f>
+        <v>3.9</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.5641025641025648</v>
+      </c>
+      <c r="G8" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Below Average</v>
+      </c>
+      <c r="J8" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A7,"'")</f>
+        <v>'maleLateral Pinch'</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="24.75" thickBot="1">
+      <c r="A9" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="11">
+        <v>12.7</v>
+      </c>
+      <c r="D9" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J9&amp;"!A:A"),INDIRECT(J9&amp;"!B:B"))</f>
+        <v>26.2</v>
+      </c>
+      <c r="E9" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J9&amp;"!A:A"),INDIRECT(J9&amp;"!C:C"))</f>
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3.2926829268292686</v>
+      </c>
+      <c r="G9" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Below Average</v>
+      </c>
+      <c r="J9" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A9,"'")</f>
+        <v>'malePalmer Pinch'</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="16.5" thickBot="1">
+      <c r="A10" s="25"/>
+      <c r="B10" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="C10" s="11">
+        <v>10.7</v>
+      </c>
+      <c r="D10" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J10&amp;"!A:A"),INDIRECT(J10&amp;"!D:D"))</f>
+        <v>25.9</v>
+      </c>
+      <c r="E10" s="10">
+        <f ca="1">LOOKUP($B$13,INDIRECT(J10&amp;"!A:A"),INDIRECT(J10&amp;"!e:e"))</f>
+        <v>5.4</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" ca="1" si="0"/>
+        <v>-2.8148148148148144</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" ca="1" si="1"/>
+        <v>Below Average</v>
+      </c>
+      <c r="J10" s="7" t="str">
+        <f>CONCATENATE("'",$B$12,A9,"'")</f>
+        <v>'malePalmer Pinch'</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="26.25">
+      <c r="A12" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="B12" s="60" t="str">
+        <f>'Assessment Information'!D4</f>
+        <v>male</v>
+      </c>
+      <c r="C12" s="61"/>
+      <c r="D12" s="7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="26.25">
+      <c r="A13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="58">
+        <f>'Assessment Information'!B4</f>
+        <v>39</v>
+      </c>
+      <c r="C13" s="59"/>
+      <c r="D13" s="7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B12:C12"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G10">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>NOT(ISERROR(SEARCH("Below Average",G3)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8408,24 +8612,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" s="44" t="s">
         <v>274</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J1" s="44" t="s">
-        <v>276</v>
       </c>
       <c r="K1" s="44"/>
       <c r="L1" s="44"/>
       <c r="M1" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="N1" s="43"/>
       <c r="O1" s="43"/>
@@ -8601,18 +8805,18 @@
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J8" s="44" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
       <c r="M8" s="43" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="N8" s="28"/>
       <c r="O8" s="28"/>
@@ -8759,7 +8963,7 @@
         <v>41.7</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F13" s="30">
         <f>SUM(B13:D13)/3</f>
@@ -8782,7 +8986,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="F15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -8798,6 +9002,420 @@
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="46"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B4" s="46"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="B5" s="46"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="46"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B8" s="46"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" t="s">
+        <v>320</v>
+      </c>
+      <c r="B9" s="46"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" t="s">
+        <v>320</v>
+      </c>
+      <c r="B10" s="46"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B11" s="46"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" t="s">
+        <v>320</v>
+      </c>
+      <c r="B12" s="46"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="B13" s="46"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" t="s">
+        <v>321</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C14" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" t="s">
+        <v>321</v>
+      </c>
+      <c r="B15" s="46"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" t="s">
+        <v>321</v>
+      </c>
+      <c r="B16" s="46"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" t="s">
+        <v>321</v>
+      </c>
+      <c r="B17" s="46"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" t="s">
+        <v>321</v>
+      </c>
+      <c r="B18" s="46"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" t="s">
+        <v>321</v>
+      </c>
+      <c r="B19" s="46"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="B20" s="46"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" t="s">
+        <v>325</v>
+      </c>
+      <c r="B21" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C21" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="B22" s="46"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" t="s">
+        <v>325</v>
+      </c>
+      <c r="B23" s="46"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="46"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" t="s">
+        <v>325</v>
+      </c>
+      <c r="B25" s="46"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" t="s">
+        <v>325</v>
+      </c>
+      <c r="B26" s="46"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="B27" s="46"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" t="s">
+        <v>322</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="46"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" t="s">
+        <v>322</v>
+      </c>
+      <c r="B30" s="46"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B31" s="46"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="B32" s="46"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" t="s">
+        <v>323</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C33" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" t="s">
+        <v>323</v>
+      </c>
+      <c r="B34" s="46"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" t="s">
+        <v>323</v>
+      </c>
+      <c r="B35" s="46"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" t="s">
+        <v>323</v>
+      </c>
+      <c r="B36" s="46"/>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="B37" s="46"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" t="s">
+        <v>324</v>
+      </c>
+      <c r="B38" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" t="s">
+        <v>324</v>
+      </c>
+      <c r="B39" s="46"/>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" t="s">
+        <v>324</v>
+      </c>
+      <c r="B40" s="46"/>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" t="s">
+        <v>324</v>
+      </c>
+      <c r="B41" s="46"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="B42" s="46"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" t="s">
+        <v>326</v>
+      </c>
+      <c r="B43" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C43" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B44" s="46"/>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" t="s">
+        <v>326</v>
+      </c>
+      <c r="B45" s="46"/>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" t="s">
+        <v>326</v>
+      </c>
+      <c r="B46" s="46"/>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="B47" s="46"/>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B49" s="46"/>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="B50" s="46"/>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" t="s">
+        <v>333</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C51" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" t="s">
+        <v>333</v>
+      </c>
+      <c r="B52" s="46"/>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="B53" s="46"/>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C54" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="46"/>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" s="46"/>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="B57" s="46"/>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" t="s">
+        <v>335</v>
+      </c>
+      <c r="B58" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="C58" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" t="s">
+        <v>335</v>
+      </c>
+      <c r="B59" s="46"/>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" t="s">
+        <v>335</v>
+      </c>
+      <c r="B60" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8818,19 +9436,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9897,19 +10515,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -10976,19 +11594,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12055,19 +12673,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13134,19 +13752,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14198,77 +14816,90 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A2:A23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="46"/>
+    <row r="2" spans="1:1" ht="25.5">
+      <c r="A2" s="56" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="25.5">
+      <c r="A4" s="56"/>
+    </row>
+    <row r="5" spans="1:1" ht="25.5">
+      <c r="A5" s="56"/>
+    </row>
+    <row r="6" spans="1:1" ht="25.5">
+      <c r="A6" s="56"/>
+    </row>
+    <row r="7" spans="1:1" ht="25.5">
+      <c r="A7" s="56"/>
+    </row>
+    <row r="8" spans="1:1" ht="25.5">
+      <c r="A8" s="56"/>
+    </row>
+    <row r="9" spans="1:1" ht="25.5">
+      <c r="A9" s="56"/>
+    </row>
+    <row r="10" spans="1:1" ht="25.5">
+      <c r="A10" s="56"/>
+    </row>
+    <row r="11" spans="1:1" ht="25.5">
+      <c r="A11" s="56"/>
+    </row>
+    <row r="12" spans="1:1" ht="25.5">
+      <c r="A12" s="56"/>
+    </row>
+    <row r="13" spans="1:1" ht="25.5">
+      <c r="A13" s="56"/>
+    </row>
+    <row r="14" spans="1:1" ht="25.5">
+      <c r="A14" s="56"/>
+    </row>
+    <row r="15" spans="1:1" ht="25.5">
+      <c r="A15" s="56"/>
+    </row>
+    <row r="16" spans="1:1" ht="25.5">
+      <c r="A16" s="56"/>
+    </row>
+    <row r="17" spans="1:1" ht="25.5">
+      <c r="A17" s="56"/>
+    </row>
+    <row r="18" spans="1:1" ht="25.5">
+      <c r="A18" s="56"/>
+    </row>
+    <row r="19" spans="1:1" ht="25.5">
+      <c r="A19" s="56"/>
+    </row>
+    <row r="20" spans="1:1" ht="25.5">
+      <c r="A20" s="56"/>
+    </row>
+    <row r="21" spans="1:1" ht="25.5">
+      <c r="A21" s="56"/>
+    </row>
+    <row r="22" spans="1:1" ht="25.5">
+      <c r="A22" s="56"/>
+    </row>
+    <row r="23" spans="1:1" ht="25.5">
+      <c r="A23" s="56"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1"/>
+    <hyperlink ref="A2" location="'Assessment Information'!A1" display="Assessment Information"/>
+    <hyperlink ref="A3" location="Purposes!A1" display="Purpose of Report"/>
   </hyperlinks>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
-  </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="21" activeTab="34"/>
   </bookViews>
   <sheets>
     <sheet name="FemaleHand grip" sheetId="22" state="hidden" r:id="rId1"/>
@@ -39,6 +39,9 @@
     <sheet name="grip pinch strength" sheetId="21" r:id="rId30"/>
     <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId31"/>
     <sheet name="ADL" sheetId="32" r:id="rId32"/>
+    <sheet name="AbiltiesLimitations" sheetId="34" r:id="rId33"/>
+    <sheet name="JobAnalysis" sheetId="35" r:id="rId34"/>
+    <sheet name="WorkWell" sheetId="36" r:id="rId35"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MaleHand grip'!$A$1:$E$62</definedName>
@@ -53,16 +56,12 @@
     <definedName name="OLE_LINK21" localSheetId="15">Background!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="397">
   <si>
     <t>Therapist</t>
   </si>
@@ -1107,6 +1106,153 @@
   </si>
   <si>
     <t>John</t>
+  </si>
+  <si>
+    <t>Abilities</t>
+  </si>
+  <si>
+    <t>No physical limitation identified</t>
+  </si>
+  <si>
+    <t>Ability to care for own needs</t>
+  </si>
+  <si>
+    <t>Limitations</t>
+  </si>
+  <si>
+    <t>Limitations scored for visual and auditory memory in the CAM test</t>
+  </si>
+  <si>
+    <t>Decreased rate of work</t>
+  </si>
+  <si>
+    <t>Sitting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frequently </t>
+  </si>
+  <si>
+    <t>Frequently</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Walking</t>
+  </si>
+  <si>
+    <t>Occasionally</t>
+  </si>
+  <si>
+    <t>Frequently*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standing </t>
+  </si>
+  <si>
+    <t>Rarely</t>
+  </si>
+  <si>
+    <t>Bilateral hand function, coordination and dexterity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occasionally </t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem solving </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communication and interpersonal skills </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal presentation of self </t>
+  </si>
+  <si>
+    <t>Internal motivation</t>
+  </si>
+  <si>
+    <t>Match</t>
+  </si>
+  <si>
+    <t>Demand</t>
+  </si>
+  <si>
+    <t>Current occupational Information</t>
+  </si>
+  <si>
+    <t>1 Lifting and carrying</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Heavy</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Static and dynamic posturing</t>
+  </si>
+  <si>
+    <t>Unable</t>
+  </si>
+  <si>
+    <t>Some limitation</t>
+  </si>
+  <si>
+    <t>Slight or no limitation</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Front carry</t>
+  </si>
+  <si>
+    <t>5 kg</t>
+  </si>
+  <si>
+    <t>7 kg</t>
+  </si>
+  <si>
+    <t>10 kg</t>
+  </si>
+  <si>
+    <t>√</t>
+  </si>
+  <si>
+    <t>No limitations</t>
+  </si>
+  <si>
+    <t>Standing</t>
+  </si>
+  <si>
+    <t>Adequate standing ability and tolerance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elevated work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No limitations </t>
+  </si>
+  <si>
+    <t>Significant_limitation</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>SL</t>
+  </si>
+  <si>
+    <t>SNL</t>
   </si>
 </sst>
 </file>
@@ -1780,11 +1926,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108958464"/>
-        <c:axId val="108960384"/>
+        <c:axId val="58006144"/>
+        <c:axId val="58028800"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108958464"/>
+        <c:axId val="58006144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1819,7 +1965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108960384"/>
+        <c:crossAx val="58028800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1829,7 +1975,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="108960384"/>
+        <c:axId val="58028800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1874,7 +2020,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108958464"/>
+        <c:crossAx val="58006144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2061,11 +2207,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="108980096"/>
-        <c:axId val="109449216"/>
+        <c:axId val="118785536"/>
+        <c:axId val="118787456"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="108980096"/>
+        <c:axId val="118785536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="109449216"/>
+        <c:crossAx val="118787456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2110,7 +2256,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="109449216"/>
+        <c:axId val="118787456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2155,7 +2301,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="108980096"/>
+        <c:crossAx val="118785536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3723,11 +3869,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3800,11 +3941,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3812,7 +3948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -3883,7 +4019,7 @@
       </c>
       <c r="B7" s="48">
         <f ca="1">NOW()</f>
-        <v>41929.686862037037</v>
+        <v>41929.742560763887</v>
       </c>
       <c r="F7" s="23"/>
     </row>
@@ -4018,11 +4154,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4152,11 +4283,6 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4471,11 +4597,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4607,11 +4728,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4750,20 +4866,15 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:C41"/>
+  <dimension ref="A2:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5016,14 +5127,14 @@
       <c r="B41" s="46"/>
       <c r="C41" s="46"/>
     </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5082,11 +5193,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5123,11 +5229,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -5154,11 +5255,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6236,11 +6332,6 @@
   </sheetData>
   <autoFilter ref="A1:E62"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6356,11 +6447,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6514,11 +6600,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6752,11 +6833,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6809,11 +6885,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6901,11 +6972,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6951,11 +7017,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -6991,11 +7052,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7027,11 +7083,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7072,11 +7123,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -7177,11 +7223,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8256,11 +8297,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8592,11 +8628,6 @@
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -8997,11 +9028,6 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -9419,6 +9445,489 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="38.140625" customWidth="1"/>
+    <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="B4" t="s">
+        <v>349</v>
+      </c>
+      <c r="D4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="B5" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H50" sqref="H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" t="s">
+        <v>371</v>
+      </c>
+      <c r="C2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15">
+      <c r="A3" t="s">
+        <v>354</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>355</v>
+      </c>
+      <c r="C3" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D3" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15">
+      <c r="A4" t="s">
+        <v>358</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>359</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>360</v>
+      </c>
+      <c r="D4" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15">
+      <c r="A5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15">
+      <c r="A6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D6" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15">
+      <c r="A7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15">
+      <c r="A8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D8" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15">
+      <c r="A9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>364</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15">
+      <c r="A10" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D10" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D11" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15">
+      <c r="A12" t="s">
+        <v>368</v>
+      </c>
+      <c r="B12" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D12" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15">
+      <c r="A13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>356</v>
+      </c>
+      <c r="D13" s="46" t="s">
+        <v>357</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" t="s">
+        <v>378</v>
+      </c>
+      <c r="J3" t="s">
+        <v>392</v>
+      </c>
+      <c r="K3" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" t="s">
+        <v>374</v>
+      </c>
+      <c r="C4" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4" t="s">
+        <v>246</v>
+      </c>
+      <c r="I4" t="s">
+        <v>393</v>
+      </c>
+      <c r="J4" t="s">
+        <v>394</v>
+      </c>
+      <c r="K4" t="s">
+        <v>395</v>
+      </c>
+      <c r="L4" t="s">
+        <v>396</v>
+      </c>
+      <c r="M4" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15">
+      <c r="A5" s="46" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="46" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="46" t="s">
+        <v>253</v>
+      </c>
+      <c r="H5" s="46" t="s">
+        <v>354</v>
+      </c>
+      <c r="I5" s="46"/>
+      <c r="J5" s="46"/>
+      <c r="K5" s="46"/>
+      <c r="L5" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15">
+      <c r="A6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="H6" s="46" t="s">
+        <v>388</v>
+      </c>
+      <c r="I6" s="46"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="46"/>
+      <c r="L6" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="H7" s="46" t="s">
+        <v>390</v>
+      </c>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15">
+      <c r="A8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="46"/>
+      <c r="L8" s="46"/>
+      <c r="M8" s="46"/>
+    </row>
+    <row r="9" spans="1:13" ht="15">
+      <c r="A9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="46"/>
+      <c r="M9" s="46"/>
+    </row>
+    <row r="10" spans="1:13" ht="15">
+      <c r="A10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+      <c r="M10" s="46"/>
+    </row>
+    <row r="11" spans="1:13" ht="15">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="46"/>
+      <c r="M11" s="46"/>
+    </row>
+    <row r="12" spans="1:13" ht="15">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
+      <c r="J12" s="46"/>
+      <c r="K12" s="46"/>
+      <c r="L12" s="46"/>
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:13" ht="15">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="46"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E62"/>
@@ -10490,11 +10999,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -11569,11 +12073,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -12648,11 +13147,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -13727,11 +14221,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -14806,11 +15295,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 

--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="FemaleHand grip" sheetId="22" state="hidden" r:id="rId1"/>
@@ -24,18 +24,18 @@
     <sheet name="Medical Information" sheetId="6" r:id="rId15"/>
     <sheet name="Background" sheetId="7" r:id="rId16"/>
     <sheet name="Occupational History" sheetId="37" r:id="rId17"/>
-    <sheet name="Main Complaints" sheetId="8" r:id="rId18"/>
-    <sheet name="Consistency performance" sheetId="9" r:id="rId19"/>
-    <sheet name="Physical results" sheetId="10" r:id="rId20"/>
-    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId21"/>
-    <sheet name="Thurstone" sheetId="12" r:id="rId22"/>
-    <sheet name="Rivermead" sheetId="13" r:id="rId23"/>
-    <sheet name="Cam" sheetId="14" r:id="rId24"/>
-    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId25"/>
-    <sheet name="Cooperation effort" sheetId="16" r:id="rId26"/>
-    <sheet name="General Observations" sheetId="17" r:id="rId27"/>
-    <sheet name="Pain report" sheetId="18" r:id="rId28"/>
-    <sheet name="Safety" sheetId="19" r:id="rId29"/>
+    <sheet name="Main complaints" sheetId="8" r:id="rId18"/>
+    <sheet name="General Observations" sheetId="17" r:id="rId19"/>
+    <sheet name="Consistency performance" sheetId="9" r:id="rId20"/>
+    <sheet name="Pain report" sheetId="18" r:id="rId21"/>
+    <sheet name="Safety" sheetId="19" r:id="rId22"/>
+    <sheet name="Physical results" sheetId="10" r:id="rId23"/>
+    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId24"/>
+    <sheet name="Thurstone" sheetId="12" r:id="rId25"/>
+    <sheet name="Rivermead" sheetId="13" r:id="rId26"/>
+    <sheet name="Cam" sheetId="14" r:id="rId27"/>
+    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId28"/>
+    <sheet name="Cooperation effort" sheetId="16" r:id="rId29"/>
     <sheet name="Musculoskeletal" sheetId="30" r:id="rId30"/>
     <sheet name="grip pinch strength" sheetId="21" r:id="rId31"/>
     <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId32"/>
@@ -48,6 +48,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MaleHand grip'!$A$1:$E$62</definedName>
     <definedName name="Access">Background!$B$10</definedName>
     <definedName name="Accessibility">Background!$B$9</definedName>
+    <definedName name="ADL_List">ADL!$A$1:$C$60</definedName>
     <definedName name="age">'Assessment Information'!$B$6</definedName>
     <definedName name="assessment_Duration">'Assessment Information'!#REF!</definedName>
     <definedName name="assessment_DurationHours">'Assessment Information'!#REF!</definedName>
@@ -69,6 +70,8 @@
     <definedName name="ClientLastName">ADL!$C$3</definedName>
     <definedName name="ClientSurname">'Assessment Information'!$B$2</definedName>
     <definedName name="ClientTitle">'Assessment Information'!#REF!</definedName>
+    <definedName name="ConsistencyPerformance">'Consistency performance'!$A$3:$B$41</definedName>
+    <definedName name="CPIntro">'Consistency performance'!$A$2</definedName>
     <definedName name="currentAccomplishment">'Occupational History'!$G$6</definedName>
     <definedName name="currentEmployer">'Occupational History'!$G$5</definedName>
     <definedName name="currentInstitution">'Occupational History'!$G$5</definedName>
@@ -84,12 +87,16 @@
     <definedName name="Facilities">Background!$B$8</definedName>
     <definedName name="firstName">'Assessment Information'!$B$1</definedName>
     <definedName name="gender">'Assessment Information'!$B$3</definedName>
+    <definedName name="GeneralComplaints">'General Observations'!$A$2:$B$40</definedName>
     <definedName name="IdNumber">'Assessment Information'!$B$5</definedName>
     <definedName name="JobDescription">'Occupational History'!$H$4:$H$20</definedName>
     <definedName name="language">'Assessment Information'!$B$11</definedName>
     <definedName name="lastWorked">'Occupational History'!$G$6</definedName>
     <definedName name="List_PeoplePresent">'Assessment Information'!$D$3:$E$11</definedName>
+    <definedName name="MainCom">'Main complaints'!$A$2:$B$20</definedName>
+    <definedName name="mainComplaints">'Main complaints'!$A$2:$A$20</definedName>
     <definedName name="MaritalStatus">Background!$B$3</definedName>
+    <definedName name="MC">'Main complaints'!$A$2:$A$21</definedName>
     <definedName name="medicalHistory">'Medical Information'!$A$1:$B$20</definedName>
     <definedName name="methods_used">'Methods used'!$A$2:$B$60</definedName>
     <definedName name="Occupants">Background!$B$7</definedName>
@@ -97,15 +104,19 @@
     <definedName name="OLE_LINK19" localSheetId="15">Background!#REF!</definedName>
     <definedName name="OLE_LINK21" localSheetId="15">Background!#REF!</definedName>
     <definedName name="ourRef">'Assessment Information'!$B$17</definedName>
+    <definedName name="PainList">'Pain report'!$A$4:$B$42</definedName>
     <definedName name="People_Present">'Assessment Information'!$D$2:$E$11</definedName>
     <definedName name="peoplePresent">'Assessment Information'!$D$5:$E$11</definedName>
     <definedName name="purposes">'Purpose of report'!$A$2:$B$20</definedName>
     <definedName name="refAssessor">'Assessment Information'!$B$16</definedName>
     <definedName name="refCompany">'Assessment Information'!$B$15</definedName>
     <definedName name="ReportDate">'Assessment Information'!$B$12</definedName>
+    <definedName name="SafetyList">Safety!$A$4:$B$46</definedName>
     <definedName name="SupportStructure">Background!$B$4</definedName>
     <definedName name="surName">'Assessment Information'!$B$2</definedName>
     <definedName name="templateName">Configuration!$B$9</definedName>
+    <definedName name="the_list">ADL!$A$1:$C$60</definedName>
+    <definedName name="thelist">ADL!$A$1:$C$60</definedName>
     <definedName name="Therapist_Cell">Configuration!$B$4</definedName>
     <definedName name="Therapist_Email">Configuration!$B$5</definedName>
     <definedName name="Therapist_FirstName">Configuration!$B$2</definedName>
@@ -118,7 +129,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="405">
   <si>
     <t>Therapist</t>
   </si>
@@ -466,21 +477,6 @@
     <t>Immediate family, wife and his son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Keefelakae reported experiencing anxiety at times however he further noted that his medication is improving his experience of anxiety </t>
-  </si>
-  <si>
-    <t>The client drove himself to the assessment in his own private car and he arrived timeously for the assessment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Keefelakae arrived prepared for the assessment process, he brought copies of relevant documentation and he was able to complete the assessment forms with independence and adequate detail </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client was friendly in his interaction however he was observed to be anxious initially in the assessment, his anxiety levels improved as the assessment progressed </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He cooperated with all demands made on him for the full duration of the assessment </t>
-  </si>
-  <si>
     <t xml:space="preserve">Mr. Keefelakae did not report or display any overt physical limitations during the assessment process. The client demonstrated an adequate ability to perform and maintain functional positions such as sitting, standing, walking and stair climbing with independence and without any reported limitations. Mr. Keefelakae did not demonstrate or report experiencing any physical pain or discomfort at any time during the assessment period or when questioned. Due to the psychological nature of the client’s medical diagnosis and presented features, the performance of a formal physical (WorkWell) assessment was not deemed necessary and therefore was not performed during this assessment. </t>
   </si>
   <si>
@@ -613,24 +609,6 @@
     <t>dsfjsfds</t>
   </si>
   <si>
-    <t>pain 1</t>
-  </si>
-  <si>
-    <t>pain2</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
     <t>Bullet</t>
   </si>
   <si>
@@ -1322,6 +1300,51 @@
   </si>
   <si>
     <t>Experience</t>
+  </si>
+  <si>
+    <t>Main complaints</t>
+  </si>
+  <si>
+    <t>List of General Observations</t>
+  </si>
+  <si>
+    <t>Arival</t>
+  </si>
+  <si>
+    <t>[[Client]] Drove himself</t>
+  </si>
+  <si>
+    <t>[[Client]] was driven to the assessement</t>
+  </si>
+  <si>
+    <t>Assessment</t>
+  </si>
+  <si>
+    <t>[[Client]] was uncompanied during assessment</t>
+  </si>
+  <si>
+    <t>Consistency of performance</t>
+  </si>
+  <si>
+    <t>[[Client]] displayed consistency in the following ways:</t>
+  </si>
+  <si>
+    <t>[[Client]] Performed well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[[Client]] performance was bad </t>
+  </si>
+  <si>
+    <t>Pains reported</t>
+  </si>
+  <si>
+    <t>Safety</t>
+  </si>
+  <si>
+    <t>[[Client]] Was Safe</t>
+  </si>
+  <si>
+    <t>[[Client]] not safe</t>
   </si>
 </sst>
 </file>
@@ -1338,7 +1361,7 @@
     <numFmt numFmtId="170" formatCode="####\-#######"/>
     <numFmt numFmtId="171" formatCode="###\-###\-####"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1483,6 +1506,17 @@
       <i/>
       <sz val="9"/>
       <name val="Century Gothic"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="3"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -1791,7 +1825,7 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1896,6 +1930,14 @@
     <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="4" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2071,11 +2113,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115178496"/>
-        <c:axId val="115545216"/>
+        <c:axId val="123817344"/>
+        <c:axId val="123860480"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115178496"/>
+        <c:axId val="123817344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2110,7 +2152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115545216"/>
+        <c:crossAx val="123860480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2120,7 +2162,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115545216"/>
+        <c:axId val="123860480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2165,7 +2207,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115178496"/>
+        <c:crossAx val="123817344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2352,11 +2394,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="115581312"/>
-        <c:axId val="115583232"/>
+        <c:axId val="124023552"/>
+        <c:axId val="124025472"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115581312"/>
+        <c:axId val="124023552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2433,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115583232"/>
+        <c:crossAx val="124025472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2401,7 +2443,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115583232"/>
+        <c:axId val="124025472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2446,7 +2488,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115581312"/>
+        <c:crossAx val="124023552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2963,16 +3005,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4037,7 +4079,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -4093,7 +4135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -4107,10 +4149,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="2" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -4118,10 +4160,10 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="2" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -4132,10 +4174,10 @@
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="D3" s="54" t="s">
         <v>0</v>
@@ -4150,7 +4192,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
       <c r="D4" s="54" t="s">
         <v>34</v>
@@ -4195,7 +4237,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -4206,7 +4248,7 @@
       </c>
       <c r="B9" s="44">
         <f ca="1">NOW()</f>
-        <v>41934.717419675922</v>
+        <v>41937.59640451389</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -4217,7 +4259,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>382</v>
+        <v>371</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -4240,7 +4282,7 @@
       </c>
       <c r="B12" s="55">
         <f ca="1">NOW()</f>
-        <v>41934.717419675922</v>
+        <v>41937.59640451389</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -4321,24 +4363,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="42"/>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4350,41 +4392,41 @@
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42"/>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42"/>
       <c r="B7" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="42"/>
       <c r="B8" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="42"/>
       <c r="B9" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -4449,210 +4491,210 @@
   <sheetData>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" s="48" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="42"/>
       <c r="B3" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42"/>
       <c r="B4" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>175</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B8" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>179</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B13" t="s">
         <v>172</v>
-      </c>
-      <c r="B13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="42"/>
       <c r="B17" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="42"/>
       <c r="B18" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="42"/>
       <c r="B19" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="42"/>
       <c r="B20" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="42"/>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="42"/>
       <c r="B22" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="42"/>
       <c r="B23" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="42"/>
       <c r="B24" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="42"/>
       <c r="B25" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="42"/>
       <c r="B26" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="42"/>
       <c r="B27" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="42"/>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="42"/>
       <c r="B29" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="42"/>
       <c r="B30" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B31" t="s">
-        <v>201</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -4877,8 +4919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5028,7 +5070,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
@@ -5057,7 +5099,7 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="B5" s="42"/>
     </row>
@@ -5087,7 +5129,7 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="63" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>92</v>
@@ -5111,12 +5153,12 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="62" t="s">
-        <v>389</v>
+        <v>378</v>
       </c>
       <c r="B13" s="62" t="s">
         <v>97</v>
@@ -5218,36 +5260,36 @@
   <sheetData>
     <row r="1" spans="1:8" ht="15">
       <c r="A1" s="64" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>391</v>
+        <v>380</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="C2" s="69" t="s">
-        <v>400</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="F3" s="67" t="s">
-        <v>392</v>
+        <v>381</v>
       </c>
       <c r="G3" s="68"/>
       <c r="H3" s="63" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
@@ -5255,13 +5297,13 @@
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
       <c r="F4" s="65" t="s">
-        <v>393</v>
+        <v>382</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H4" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
@@ -5269,13 +5311,13 @@
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
       <c r="F5" s="66" t="s">
-        <v>394</v>
+        <v>383</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
@@ -5283,10 +5325,10 @@
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
       <c r="F6" s="66" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H6" s="42"/>
     </row>
@@ -5295,10 +5337,10 @@
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
       <c r="F7" s="63" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -5307,7 +5349,7 @@
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
       <c r="G8" s="63" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="H8" s="42"/>
     </row>
@@ -5316,7 +5358,7 @@
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="G9" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -5325,7 +5367,7 @@
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="H10" s="42"/>
     </row>
@@ -5401,10 +5443,10 @@
     </row>
     <row r="22" spans="1:8" ht="15">
       <c r="F22" s="63" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5415,10 +5457,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A16"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5426,45 +5468,97 @@
     <col min="1" max="1" width="182.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" s="5" customFormat="1" ht="15.75">
+        <v>222</v>
+      </c>
+      <c r="B2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" s="5" customFormat="1" ht="15.75">
       <c r="A3" s="42" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" s="5" customFormat="1" ht="15.75">
+        <v>161</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" s="5" customFormat="1" ht="15.75">
       <c r="A4" s="42" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" s="5" customFormat="1" ht="15.75">
+        <v>161</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" s="5" customFormat="1" ht="15.75">
       <c r="A5" s="42" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" ht="15.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" s="5" customFormat="1" ht="15.75">
       <c r="A6" s="42" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" s="5" customFormat="1" ht="15.75">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" ht="15.75">
       <c r="A7" s="42" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="9" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="10" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="11" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="12" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="13" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="14" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="15" spans="1:1" s="5" customFormat="1" ht="15.75"/>
-    <row r="16" spans="1:1" s="5" customFormat="1" ht="15.75"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A8" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A9" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A10" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A11" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -5473,40 +5567,169 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="44" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
+    <row r="1" spans="1:2" ht="20.25">
+      <c r="A1" s="70" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="42"/>
+      <c r="B3" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
       <c r="A5" s="42" t="s">
-        <v>59</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42"/>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5532,16 +5755,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6588,6 +6811,518 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="30">
+      <c r="A2" s="71" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="63" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="42"/>
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42"/>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="63" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="42"/>
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="42"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="B14" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="42"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="42"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A3"/>
   <sheetViews>
@@ -6602,12 +7337,12 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15">
       <c r="A3" s="42" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -6616,7 +7351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -6634,96 +7369,96 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15">
       <c r="A3" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E3" s="42" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E4" s="42" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15">
       <c r="A6" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="42" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
       <c r="D7" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E7" s="42" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="D8" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="E8" s="46" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -6731,7 +7466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -6752,44 +7487,44 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="C2" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D2" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="F2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B3" s="50">
         <v>1</v>
@@ -6809,7 +7544,7 @@
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B4" s="50">
         <v>2</v>
@@ -6829,7 +7564,7 @@
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B5" s="50">
         <v>4</v>
@@ -6849,7 +7584,7 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B6" s="50">
         <v>4</v>
@@ -6884,7 +7619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -6903,32 +7638,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>283</v>
+        <v>272</v>
       </c>
       <c r="C2" s="42">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>277</v>
+        <v>266</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -6936,7 +7671,7 @@
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="C3" s="42">
         <v>5</v>
@@ -6950,7 +7685,7 @@
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
@@ -6962,11 +7697,11 @@
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="1" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -6974,11 +7709,11 @@
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="1" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -6986,11 +7721,11 @@
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="1" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -6998,25 +7733,25 @@
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="1" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="1" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7024,25 +7759,25 @@
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="1" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="1" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7050,11 +7785,11 @@
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="1" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7062,11 +7797,11 @@
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="1" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7074,23 +7809,23 @@
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="1" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="42"/>
       <c r="D15" s="1" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7117,7 +7852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -7129,41 +7864,41 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C3" s="42">
         <v>1</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C4" s="42">
         <v>3</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -7171,7 +7906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7187,71 +7922,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>203</v>
+        <v>192</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>191</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>196</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>212</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
-        <v>213</v>
+        <v>202</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -7259,7 +7994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A7"/>
   <sheetViews>
@@ -7271,7 +8006,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15">
@@ -7281,7 +8016,7 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" s="42" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
@@ -7291,118 +8026,12 @@
     </row>
     <row r="6" spans="1:1" ht="15">
       <c r="A6" s="42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15">
       <c r="A7" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="42" t="s">
-        <v>169</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -7430,16 +8059,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -8500,82 +9129,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>236</v>
+        <v>225</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8608,36 +9237,36 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="22" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="20" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C3" s="60">
         <v>153.1</v>
@@ -8667,7 +9296,7 @@
     <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C4" s="61">
         <v>90.3</v>
@@ -8695,10 +9324,10 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C5" s="61">
         <v>13.5</v>
@@ -8728,7 +9357,7 @@
     <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="A6" s="21"/>
       <c r="B6" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C6" s="61">
         <v>4.3</v>
@@ -8756,10 +9385,10 @@
     </row>
     <row r="7" spans="1:11" ht="24.75" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C7" s="61">
         <v>26.6</v>
@@ -8788,7 +9417,7 @@
     <row r="8" spans="1:11" ht="16.5" thickBot="1">
       <c r="A8" s="21"/>
       <c r="B8" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C8" s="61">
         <v>11.7</v>
@@ -8816,10 +9445,10 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" thickBot="1">
       <c r="A9" s="20" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="C9" s="61">
         <v>12.7</v>
@@ -8848,7 +9477,7 @@
     <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="C10" s="61">
         <v>10.7</v>
@@ -8876,28 +9505,28 @@
     </row>
     <row r="12" spans="1:11" ht="26.25">
       <c r="A12" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="B12" s="72" t="str">
+        <v>208</v>
+      </c>
+      <c r="B12" s="76" t="str">
         <f>'Assessment Information'!B3</f>
         <v>male</v>
       </c>
-      <c r="C12" s="73"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="5" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="70">
+      <c r="B13" s="74">
         <f>'Assessment Information'!B6</f>
         <v>39</v>
       </c>
-      <c r="C13" s="71"/>
+      <c r="C13" s="75"/>
       <c r="D13" s="5" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8927,24 +9556,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
       <c r="M1" s="39" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
@@ -9120,18 +9749,18 @@
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="39" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -9278,7 +9907,7 @@
         <v>41.7</v>
       </c>
       <c r="E13" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="F13" s="26">
         <f>SUM(B13:D13)/3</f>
@@ -9301,7 +9930,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="F15" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -9320,7 +9949,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9332,41 +9961,41 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>293</v>
       </c>
       <c r="B1" s="53" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B3" s="42"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>305</v>
+        <v>294</v>
       </c>
       <c r="B5" s="42"/>
     </row>
@@ -9376,42 +10005,42 @@
     </row>
     <row r="7" spans="1:3" ht="15">
       <c r="A7" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C7" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15">
       <c r="A8" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B8" s="42"/>
     </row>
     <row r="9" spans="1:3" ht="15">
       <c r="A9" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B9" s="42"/>
     </row>
     <row r="10" spans="1:3" ht="15">
       <c r="A10" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B10" s="42"/>
     </row>
     <row r="11" spans="1:3" ht="15">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:3" ht="15">
       <c r="A12" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B12" s="42"/>
     </row>
@@ -9420,42 +10049,42 @@
     </row>
     <row r="14" spans="1:3" ht="15">
       <c r="A14" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C14" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15">
       <c r="A15" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B15" s="42"/>
     </row>
     <row r="16" spans="1:3" ht="15">
       <c r="A16" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B16" s="42"/>
     </row>
     <row r="17" spans="1:3" ht="15">
       <c r="A17" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:3" ht="15">
       <c r="A18" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B18" s="42"/>
     </row>
     <row r="19" spans="1:3" ht="15">
       <c r="A19" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="B19" s="42"/>
     </row>
@@ -9464,42 +10093,42 @@
     </row>
     <row r="21" spans="1:3" ht="15">
       <c r="A21" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B21" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C21" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
       <c r="A22" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B22" s="42"/>
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B23" s="42"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B24" s="42"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B25" s="42"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="B26" s="42"/>
     </row>
@@ -9508,30 +10137,30 @@
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B28" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C28" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B30" s="42"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B31" s="42"/>
     </row>
@@ -9540,30 +10169,30 @@
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B33" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C33" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B34" s="42"/>
     </row>
     <row r="35" spans="1:3" ht="15">
       <c r="A35" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:3" ht="15">
       <c r="A36" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="B36" s="42"/>
     </row>
@@ -9572,30 +10201,30 @@
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B38" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C38" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
       <c r="A39" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:3" ht="15">
       <c r="A40" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B40" s="42"/>
     </row>
     <row r="41" spans="1:3" ht="15">
       <c r="A41" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="B41" s="42"/>
     </row>
@@ -9604,30 +10233,30 @@
     </row>
     <row r="43" spans="1:3" ht="15">
       <c r="A43" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B43" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C43" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="15">
       <c r="A44" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B44" s="42"/>
     </row>
     <row r="45" spans="1:3" ht="15">
       <c r="A45" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B45" s="42"/>
     </row>
     <row r="46" spans="1:3" ht="15">
       <c r="A46" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
       <c r="B46" s="42"/>
     </row>
@@ -9636,18 +10265,18 @@
     </row>
     <row r="48" spans="1:3" ht="15">
       <c r="A48" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B48" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C48" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
       <c r="A49" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="B49" s="42"/>
     </row>
@@ -9656,18 +10285,18 @@
     </row>
     <row r="51" spans="1:3" ht="15">
       <c r="A51" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B51" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C51" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
       <c r="A52" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B52" s="42"/>
     </row>
@@ -9676,24 +10305,24 @@
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B54" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C54" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B55" s="42"/>
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="B56" s="42"/>
     </row>
@@ -9702,24 +10331,24 @@
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B58" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B59" s="42"/>
     </row>
     <row r="60" spans="1:3" ht="15">
       <c r="A60" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="B60" s="42"/>
     </row>
@@ -9734,7 +10363,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A3" sqref="A3:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -9745,54 +10374,54 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="42"/>
       <c r="B4" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="42"/>
       <c r="B5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="C5" s="42"/>
     </row>
@@ -9819,170 +10448,170 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s">
-        <v>357</v>
+        <v>346</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
-        <v>354</v>
+        <v>343</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -10013,86 +10642,86 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="H3" t="s">
-        <v>362</v>
+        <v>351</v>
       </c>
       <c r="I3" t="s">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="J3" t="s">
-        <v>377</v>
+        <v>366</v>
       </c>
       <c r="K3" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="L3" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C4" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="D4" t="s">
-        <v>361</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="H4" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="I4" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="J4" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="K4" t="s">
-        <v>380</v>
+        <v>369</v>
       </c>
       <c r="L4" t="s">
-        <v>381</v>
+        <v>370</v>
       </c>
       <c r="M4" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="42" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15">
@@ -10102,16 +10731,16 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="H6" s="42" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15">
@@ -10121,16 +10750,16 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>375</v>
+        <v>364</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>376</v>
+        <v>365</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15">
@@ -10236,16 +10865,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11310,16 +11939,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -12384,16 +13013,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13458,16 +14087,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14532,16 +15161,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15598,12 +16227,12 @@
   <sheetData>
     <row r="2" spans="1:1" ht="25.5">
       <c r="A2" s="52" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="51" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="25.5">

--- a/source/OTS.Tests/input.xlsx
+++ b/source/OTS.Tests/input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14745" windowHeight="8145" tabRatio="978" firstSheet="8" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8145" tabRatio="978" firstSheet="27" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="FemaleHand grip" sheetId="22" state="hidden" r:id="rId1"/>
@@ -29,20 +29,21 @@
     <sheet name="Consistency performance" sheetId="9" r:id="rId20"/>
     <sheet name="Pain report" sheetId="18" r:id="rId21"/>
     <sheet name="Safety" sheetId="19" r:id="rId22"/>
-    <sheet name="Physical results" sheetId="10" r:id="rId23"/>
-    <sheet name="Cognitive phychosocial results" sheetId="11" r:id="rId24"/>
-    <sheet name="Thurstone" sheetId="12" r:id="rId25"/>
-    <sheet name="Rivermead" sheetId="13" r:id="rId26"/>
-    <sheet name="Cam" sheetId="14" r:id="rId27"/>
-    <sheet name="PsychoSocialResult" sheetId="15" r:id="rId28"/>
-    <sheet name="Cooperation effort" sheetId="16" r:id="rId29"/>
-    <sheet name="Musculoskeletal" sheetId="30" r:id="rId30"/>
-    <sheet name="grip pinch strength" sheetId="21" r:id="rId31"/>
-    <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId32"/>
-    <sheet name="ADL" sheetId="32" r:id="rId33"/>
-    <sheet name="AbiltiesLimitations" sheetId="34" r:id="rId34"/>
-    <sheet name="JobAnalysis" sheetId="35" r:id="rId35"/>
-    <sheet name="WorkWell" sheetId="36" r:id="rId36"/>
+    <sheet name="Physical Observations" sheetId="10" r:id="rId23"/>
+    <sheet name="Cognitive results" sheetId="11" r:id="rId24"/>
+    <sheet name="Sheet1" sheetId="38" r:id="rId25"/>
+    <sheet name="Thurstone" sheetId="12" r:id="rId26"/>
+    <sheet name="Rivermead" sheetId="13" r:id="rId27"/>
+    <sheet name="Cam" sheetId="14" r:id="rId28"/>
+    <sheet name="PhychoSocial results" sheetId="15" r:id="rId29"/>
+    <sheet name="ADL" sheetId="32" r:id="rId30"/>
+    <sheet name="Cooperation effort" sheetId="16" r:id="rId31"/>
+    <sheet name="Musculoskeletal" sheetId="30" r:id="rId32"/>
+    <sheet name="grip pinch strength" sheetId="21" r:id="rId33"/>
+    <sheet name="Rapid exchange grip strength" sheetId="31" r:id="rId34"/>
+    <sheet name="AbiltiesLimitations" sheetId="34" r:id="rId35"/>
+    <sheet name="JobAnalysis" sheetId="35" r:id="rId36"/>
+    <sheet name="WorkWell" sheetId="36" r:id="rId37"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'MaleHand grip'!$A$1:$E$62</definedName>
@@ -70,6 +71,8 @@
     <definedName name="ClientLastName">ADL!$C$3</definedName>
     <definedName name="ClientSurname">'Assessment Information'!$B$2</definedName>
     <definedName name="ClientTitle">'Assessment Information'!#REF!</definedName>
+    <definedName name="CognitiveResult">'Cognitive results'!$A$2:$C$48</definedName>
+    <definedName name="CognitiveResultList">'Cognitive results'!$A$2:$C$48</definedName>
     <definedName name="ConsistencyPerformance">'Consistency performance'!$A$3:$B$41</definedName>
     <definedName name="CPIntro">'Consistency performance'!$A$2</definedName>
     <definedName name="currentAccomplishment">'Occupational History'!$G$6</definedName>
@@ -93,10 +96,11 @@
     <definedName name="language">'Assessment Information'!$B$11</definedName>
     <definedName name="lastWorked">'Occupational History'!$G$6</definedName>
     <definedName name="List_PeoplePresent">'Assessment Information'!$D$3:$E$11</definedName>
-    <definedName name="MainCom">'Main complaints'!$A$2:$B$20</definedName>
-    <definedName name="mainComplaints">'Main complaints'!$A$2:$A$20</definedName>
+    <definedName name="MainCom">'Main complaints'!$A$5:$B$5</definedName>
+    <definedName name="mainComplaints">'Main complaints'!$A$5:$A$5</definedName>
+    <definedName name="MainComplaintsList">'Main complaints'!$A$5:$B$63</definedName>
     <definedName name="MaritalStatus">Background!$B$3</definedName>
-    <definedName name="MC">'Main complaints'!$A$2:$A$21</definedName>
+    <definedName name="MC">'Main complaints'!$A$5:$A$6</definedName>
     <definedName name="medicalHistory">'Medical Information'!$A$1:$B$20</definedName>
     <definedName name="methods_used">'Methods used'!$A$2:$B$60</definedName>
     <definedName name="Occupants">Background!$B$7</definedName>
@@ -107,6 +111,8 @@
     <definedName name="PainList">'Pain report'!$A$4:$B$42</definedName>
     <definedName name="People_Present">'Assessment Information'!$D$2:$E$11</definedName>
     <definedName name="peoplePresent">'Assessment Information'!$D$5:$E$11</definedName>
+    <definedName name="PhychoSocialResultList">Sheet1!$A$5:$C$51</definedName>
+    <definedName name="PhysicalObservationsList">'Physical Observations'!$A$5:$B$47</definedName>
     <definedName name="purposes">'Purpose of report'!$A$2:$B$20</definedName>
     <definedName name="refAssessor">'Assessment Information'!$B$16</definedName>
     <definedName name="refCompany">'Assessment Information'!$B$15</definedName>
@@ -129,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="405">
   <si>
     <t>Therapist</t>
   </si>
@@ -477,15 +483,6 @@
     <t>Immediate family, wife and his son.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Keefelakae did not report or display any overt physical limitations during the assessment process. The client demonstrated an adequate ability to perform and maintain functional positions such as sitting, standing, walking and stair climbing with independence and without any reported limitations. Mr. Keefelakae did not demonstrate or report experiencing any physical pain or discomfort at any time during the assessment period or when questioned. Due to the psychological nature of the client’s medical diagnosis and presented features, the performance of a formal physical (WorkWell) assessment was not deemed necessary and therefore was not performed during this assessment. </t>
-  </si>
-  <si>
-    <t>Cognitive</t>
-  </si>
-  <si>
-    <t>Psychosocial</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
@@ -504,42 +501,15 @@
     <t>Insight</t>
   </si>
   <si>
-    <t xml:space="preserve">The client was orientated to person, place and time. This was further assessed in the Cognitive Assessment of Minnesota. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client demonstrated an adequate ability to concentrate throughout the assessment period. At no time during the assessment did he require any redirections of his attention while participating in cognitive testing. Mr. Keefelakae was further assessed to have adequate concentration abilities in the Cognitive Assessment of Minnesota as well as during the Thurstone Questionnaire. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Keefelakae’s thoughts were logical and goal directed at all times during the assessment. The client demonstrated an adequate ability to perform abstract thinking in the Cognitive Assessment of Minnesota. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Keefelakae displayed slightly decreased insight into his medical condition. He was assessed to be in the 5th stage of insight; this indicates ‘intellectual insight’  however he does not appear to have reached true emotional insight at this stage.  </t>
-  </si>
-  <si>
     <t>Motivation</t>
   </si>
   <si>
     <t>Communication</t>
   </si>
   <si>
-    <t>Decision making and problem solving skills</t>
-  </si>
-  <si>
     <t>Memory</t>
   </si>
   <si>
-    <t xml:space="preserve">Mr. Keefelakae displayed adequate internal motivation throughout the assessment. His participation was active at all times during the assessment and he furthermore verbalized a motivation to continue working and be productive, as he believes he is a valuable member of the SAPS. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client displayed adequate receptive and expressive communication in English. He was able to follow verbal, written and diagrammatic instructions at all times and he was able to grasp instructions adequately during the performance of the cognitive assessment tasks. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mr. Keefelakae demonstrated an adequate ability to perform concrete and abstract decision-making. He was furthermore assessed to have an adequate ability to perform simple, moderate and complex problem solving skills in the Cognitive Assessment of Minnesota. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The client displayed an adequate long-term memory when relaying his medical and personal histories during the interview process. He further was assessed to have adequate short-term and working memory abilities in the Rivermead Behavioural Memory Test and the Cognitive Assessment of Minnesota. </t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -918,12 +888,6 @@
     <t>Describe reasonable accommodations To promote vocational functioning</t>
   </si>
   <si>
-    <t>Personal presentation</t>
-  </si>
-  <si>
-    <t>xtz</t>
-  </si>
-  <si>
     <t>Test 3</t>
   </si>
   <si>
@@ -1086,9 +1050,6 @@
     <t>[[Client]]  reported that prior to her removal of her tumor she used to attend gym classes every evening. She noted that she plans to resume her exercising when she gets back into her normal routine</t>
   </si>
   <si>
-    <t>Present</t>
-  </si>
-  <si>
     <t>Client Surname</t>
   </si>
   <si>
@@ -1302,9 +1263,6 @@
     <t>Experience</t>
   </si>
   <si>
-    <t>Main complaints</t>
-  </si>
-  <si>
     <t>List of General Observations</t>
   </si>
   <si>
@@ -1345,6 +1303,54 @@
   </si>
   <si>
     <t>[[Client]] not safe</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>sore</t>
+  </si>
+  <si>
+    <t>Legs</t>
+  </si>
+  <si>
+    <t>Arms</t>
+  </si>
+  <si>
+    <t>legs sore</t>
+  </si>
+  <si>
+    <t>Physical</t>
+  </si>
+  <si>
+    <t>Cognitive result</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>t1</t>
+  </si>
+  <si>
+    <t>sz</t>
+  </si>
+  <si>
+    <t>Interpersonal relationships</t>
+  </si>
+  <si>
+    <t>The client reported that she has a low self-esteem. She reports that she has always had poor self-confidence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client reported that she is always in a state of anxiety and is excessively anxious when on standby. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client reported a close and supportive relationship with her son. She reports a history of destructive relationships throughout her adult life. Despite her reported close relationship with her son she reports assaulting her son and experiencing aggressive outbursts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The client demonstrated a limited ability to present herself due to her low mood, limited emotional expression and reported social isolation. </t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1578,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1792,17 +1798,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1823,9 +1818,9 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1896,7 +1891,6 @@
     <xf numFmtId="1" fontId="10" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="10" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="10" fillId="7" borderId="18" xfId="2" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="19" xfId="2" applyBorder="1"/>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="18" xfId="2" applyFont="1"/>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1922,22 +1916,22 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="20" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="19" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="20" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="20" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="20" xfId="5" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="19" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="19" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="19" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="4" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="20" xfId="5" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="20" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="19" xfId="5" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -2113,11 +2107,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="123817344"/>
-        <c:axId val="123860480"/>
+        <c:axId val="112931200"/>
+        <c:axId val="112933120"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="123817344"/>
+        <c:axId val="112931200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2152,7 +2146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123860480"/>
+        <c:crossAx val="112933120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2162,7 +2156,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="123860480"/>
+        <c:axId val="112933120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2207,7 +2201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="123817344"/>
+        <c:crossAx val="112931200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2394,11 +2388,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124023552"/>
-        <c:axId val="124025472"/>
+        <c:axId val="112969216"/>
+        <c:axId val="112971136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124023552"/>
+        <c:axId val="112969216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2433,7 +2427,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124025472"/>
+        <c:crossAx val="112971136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2443,7 +2437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="124025472"/>
+        <c:axId val="112971136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2488,7 +2482,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="124023552"/>
+        <c:crossAx val="112969216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3005,16 +2999,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -4079,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
@@ -4149,10 +4143,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15">
       <c r="A1" s="2" t="s">
-        <v>320</v>
+        <v>305</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>31</v>
@@ -4160,10 +4154,10 @@
     </row>
     <row r="2" spans="1:9" ht="15">
       <c r="A2" s="2" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>321</v>
+        <v>306</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>32</v>
@@ -4174,15 +4168,15 @@
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="42" t="s">
         <v>208</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="54" t="str">
+      <c r="E3" s="53" t="str">
         <f>Therapist_FirstName &amp; " " &amp; Therapist_Surname</f>
         <v>Aislinn Winslow</v>
       </c>
@@ -4192,12 +4186,12 @@
         <v>30</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>372</v>
-      </c>
-      <c r="D4" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="D4" s="53" t="s">
         <v>34</v>
       </c>
-      <c r="E4" s="54" t="str">
+      <c r="E4" s="53" t="str">
         <f>Client_FirstName &amp; " " &amp; Client_Surname</f>
         <v>John Abrahams</v>
       </c>
@@ -4206,7 +4200,7 @@
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="56">
+      <c r="B5" s="55">
         <v>7507126057089</v>
       </c>
       <c r="D5" s="42"/>
@@ -4216,7 +4210,7 @@
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="57">
+      <c r="B6" s="56">
         <v>39</v>
       </c>
       <c r="D6" s="42"/>
@@ -4236,8 +4230,8 @@
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="58" t="s">
-        <v>373</v>
+      <c r="B8" s="57" t="s">
+        <v>358</v>
       </c>
       <c r="D8" s="42"/>
       <c r="E8" s="42"/>
@@ -4248,7 +4242,7 @@
       </c>
       <c r="B9" s="44">
         <f ca="1">NOW()</f>
-        <v>41937.59640451389</v>
+        <v>41937.722214467591</v>
       </c>
       <c r="D9" s="42"/>
       <c r="E9" s="42"/>
@@ -4258,8 +4252,8 @@
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="54" t="s">
-        <v>371</v>
+      <c r="B10" s="53" t="s">
+        <v>356</v>
       </c>
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
@@ -4280,9 +4274,9 @@
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="55">
+      <c r="B12" s="54">
         <f ca="1">NOW()</f>
-        <v>41937.59640451389</v>
+        <v>41937.722214467591</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15">
@@ -4363,24 +4357,24 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="42"/>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -4392,41 +4386,41 @@
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42"/>
       <c r="B6" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42"/>
       <c r="B7" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="42"/>
       <c r="B8" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="42"/>
       <c r="B9" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75">
@@ -4481,7 +4475,7 @@
   <dimension ref="A2:B60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -4490,211 +4484,211 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="48" t="s">
-        <v>160</v>
+      <c r="A2" s="47" t="s">
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="42"/>
       <c r="B3" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42"/>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
       <c r="A12" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B12" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
       <c r="A13" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" t="s">
         <v>161</v>
-      </c>
-      <c r="B14" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
       <c r="A15" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15">
       <c r="A16" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15">
       <c r="A17" s="42"/>
       <c r="B17" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15">
       <c r="A18" s="42"/>
       <c r="B18" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15">
       <c r="A19" s="42"/>
       <c r="B19" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15">
       <c r="A20" s="42"/>
       <c r="B20" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15">
       <c r="A21" s="42"/>
       <c r="B21" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15">
       <c r="A22" s="42"/>
       <c r="B22" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15">
       <c r="A23" s="42"/>
       <c r="B23" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15">
       <c r="A24" s="42"/>
       <c r="B24" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15">
       <c r="A25" s="42"/>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15">
       <c r="A26" s="42"/>
       <c r="B26" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15">
       <c r="A27" s="42"/>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15">
       <c r="A28" s="42"/>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15">
       <c r="A29" s="42"/>
       <c r="B29" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15">
       <c r="A30" s="42"/>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15">
       <c r="A31" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B31" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15">
@@ -4919,7 +4913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B20"/>
     </sheetView>
   </sheetViews>
@@ -5070,11 +5064,11 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="63" t="s">
+      <c r="A2" s="62" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -5082,7 +5076,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="62" t="s">
         <v>86</v>
       </c>
       <c r="B3" s="42" t="s">
@@ -5090,7 +5084,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="62" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="42" t="s">
@@ -5099,12 +5093,12 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="1" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="B5" s="42"/>
     </row>
     <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="62" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="42" t="s">
@@ -5112,7 +5106,7 @@
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="62" t="s">
         <v>89</v>
       </c>
       <c r="B7" s="42" t="s">
@@ -5120,7 +5114,7 @@
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="62" t="s">
         <v>90</v>
       </c>
       <c r="B8" s="42" t="s">
@@ -5128,15 +5122,15 @@
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="63" t="s">
-        <v>374</v>
+      <c r="A9" s="62" t="s">
+        <v>359</v>
       </c>
       <c r="B9" s="42" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="62" t="s">
         <v>93</v>
       </c>
       <c r="B10" s="42" t="s">
@@ -5144,7 +5138,7 @@
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="62" t="s">
         <v>95</v>
       </c>
       <c r="B11" s="42" t="s">
@@ -5153,14 +5147,14 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15">
-      <c r="A13" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B13" s="62" t="s">
+      <c r="A13" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="B13" s="61" t="s">
         <v>97</v>
       </c>
     </row>
@@ -5259,76 +5253,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15">
-      <c r="A1" s="64" t="s">
-        <v>379</v>
+      <c r="A1" s="63" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="69" t="s">
-        <v>389</v>
+        <v>368</v>
+      </c>
+      <c r="C2" s="68" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
       <c r="A3" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F3" s="67" t="s">
-        <v>381</v>
-      </c>
-      <c r="G3" s="68"/>
-      <c r="H3" s="63" t="s">
-        <v>385</v>
+        <v>149</v>
+      </c>
+      <c r="F3" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="62" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
-      <c r="F4" s="65" t="s">
-        <v>382</v>
+      <c r="F4" s="64" t="s">
+        <v>367</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H4" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
-      <c r="F5" s="66" t="s">
-        <v>383</v>
+      <c r="F5" s="65" t="s">
+        <v>368</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="15">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
-      <c r="F6" s="66" t="s">
-        <v>384</v>
+      <c r="F6" s="65" t="s">
+        <v>369</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H6" s="42"/>
     </row>
@@ -5336,11 +5330,11 @@
       <c r="A7" s="42"/>
       <c r="B7" s="42"/>
       <c r="C7" s="42"/>
-      <c r="F7" s="63" t="s">
-        <v>387</v>
+      <c r="F7" s="62" t="s">
+        <v>372</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H7" s="42"/>
     </row>
@@ -5348,8 +5342,8 @@
       <c r="A8" s="42"/>
       <c r="B8" s="42"/>
       <c r="C8" s="42"/>
-      <c r="G8" s="63" t="s">
-        <v>386</v>
+      <c r="G8" s="62" t="s">
+        <v>371</v>
       </c>
       <c r="H8" s="42"/>
     </row>
@@ -5358,7 +5352,7 @@
       <c r="B9" s="42"/>
       <c r="C9" s="42"/>
       <c r="G9" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="H9" s="42"/>
     </row>
@@ -5367,7 +5361,7 @@
       <c r="B10" s="42"/>
       <c r="C10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="H10" s="42"/>
     </row>
@@ -5442,11 +5436,11 @@
       <c r="H20" s="42"/>
     </row>
     <row r="22" spans="1:8" ht="15">
-      <c r="F22" s="63" t="s">
-        <v>388</v>
+      <c r="F22" s="62" t="s">
+        <v>373</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -5457,94 +5451,75 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A5:B63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="182.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42"/>
+      <c r="B6" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A3" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A4" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A5" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A6" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A7" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A8" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A9" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" s="5" customFormat="1" ht="15.75">
-      <c r="A10" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" s="5" customFormat="1" ht="15.75">
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42"/>
+      <c r="B10" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="5" customFormat="1" ht="15.75">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
       <c r="A12" s="42"/>
     </row>
-    <row r="13" spans="1:2" s="5" customFormat="1" ht="15.75">
+    <row r="13" spans="1:2" ht="15">
       <c r="A13" s="42"/>
     </row>
-    <row r="14" spans="1:2" s="5" customFormat="1" ht="15.75">
+    <row r="14" spans="1:2" ht="15">
       <c r="A14" s="42"/>
     </row>
-    <row r="15" spans="1:2" s="5" customFormat="1" ht="15.75">
+    <row r="15" spans="1:2" ht="15">
       <c r="A15" s="42"/>
-    </row>
-    <row r="16" spans="1:2" s="5" customFormat="1" ht="15.75">
+      <c r="B15" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
       <c r="A16" s="42"/>
     </row>
     <row r="17" spans="1:1" ht="15">
@@ -5559,9 +5534,138 @@
     <row r="20" spans="1:1" ht="15">
       <c r="A20" s="42"/>
     </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="42"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="42"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="42"/>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="42"/>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="42"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="42"/>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="42"/>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="42"/>
+    </row>
+    <row r="52" spans="1:1" ht="15">
+      <c r="A52" s="42"/>
+    </row>
+    <row r="53" spans="1:1" ht="15">
+      <c r="A53" s="42"/>
+    </row>
+    <row r="54" spans="1:1" ht="15">
+      <c r="A54" s="42"/>
+    </row>
+    <row r="55" spans="1:1" ht="15">
+      <c r="A55" s="42"/>
+    </row>
+    <row r="56" spans="1:1" ht="15">
+      <c r="A56" s="42"/>
+    </row>
+    <row r="57" spans="1:1" ht="15">
+      <c r="A57" s="42"/>
+    </row>
+    <row r="58" spans="1:1" ht="15">
+      <c r="A58" s="42"/>
+    </row>
+    <row r="59" spans="1:1" ht="15">
+      <c r="A59" s="42"/>
+    </row>
+    <row r="60" spans="1:1" ht="15">
+      <c r="A60" s="42"/>
+    </row>
+    <row r="61" spans="1:1" ht="15">
+      <c r="A61" s="42"/>
+    </row>
+    <row r="62" spans="1:1" ht="15">
+      <c r="A62" s="42"/>
+    </row>
+    <row r="63" spans="1:1" ht="15">
+      <c r="A63" s="42"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5569,8 +5673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B40"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -5580,38 +5684,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="20.25">
-      <c r="A1" s="70" t="s">
-        <v>391</v>
+      <c r="A1" s="69" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B2" s="63" t="s">
-        <v>222</v>
+      <c r="A2" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" s="42"/>
       <c r="B3" s="1" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
@@ -5620,15 +5724,15 @@
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42"/>
       <c r="B7" s="1" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
@@ -5755,16 +5859,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6814,7 +6918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B41"/>
     </sheetView>
   </sheetViews>
@@ -6826,20 +6930,20 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="30">
-      <c r="A2" s="71" t="s">
-        <v>398</v>
+      <c r="A2" s="70" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="63" t="s">
-        <v>222</v>
+      <c r="A3" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
@@ -6848,18 +6952,18 @@
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
@@ -6871,10 +6975,10 @@
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
@@ -6995,15 +7099,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>222</v>
+      <c r="A4" s="62" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -7012,18 +7116,18 @@
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
@@ -7035,10 +7139,10 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
@@ -7147,8 +7251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
@@ -7159,15 +7263,15 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="73" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="72" t="s">
-        <v>222</v>
+      <c r="A4" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="71" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
@@ -7192,18 +7296,18 @@
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15">
       <c r="A11" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15">
@@ -7215,10 +7319,10 @@
     </row>
     <row r="14" spans="1:2" ht="15">
       <c r="A14" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15">
@@ -7324,26 +7428,177 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A3"/>
+  <dimension ref="A4:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="40.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>115</v>
-      </c>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="72" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="71" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="42"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="42"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="42"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" ht="15">
+      <c r="A10" s="42"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" ht="15">
+      <c r="A11" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15">
+      <c r="A12" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:2" ht="15">
+      <c r="A14" s="42"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="15">
+      <c r="A15" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="42"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="42"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="42"/>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7353,113 +7608,234 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="2" max="2" width="255.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>116</v>
       </c>
-      <c r="D1" t="s">
+      <c r="C2" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="42"/>
+      <c r="B3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="C3" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="42"/>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="42"/>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="42"/>
+      <c r="B7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
         <v>119</v>
       </c>
-      <c r="B2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" t="s">
+      <c r="C10" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
         <v>120</v>
       </c>
-      <c r="B3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" t="s">
+      <c r="C11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" t="s">
         <v>121</v>
       </c>
-      <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" t="s">
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" t="s">
         <v>122</v>
       </c>
-      <c r="B5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="D7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="D8" t="s">
-        <v>262</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>263</v>
-      </c>
+      <c r="C13" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="42"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="42"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="42"/>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="42"/>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7467,6 +7843,209 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="A5" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="67" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="42"/>
+      <c r="B6" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B8" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" t="s">
+        <v>400</v>
+      </c>
+      <c r="C9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C10" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="A13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" s="42"/>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" s="42"/>
+    </row>
+    <row r="17" spans="1:1" ht="15">
+      <c r="A17" s="42"/>
+    </row>
+    <row r="18" spans="1:1" ht="15">
+      <c r="A18" s="42"/>
+    </row>
+    <row r="19" spans="1:1" ht="15">
+      <c r="A19" s="42"/>
+    </row>
+    <row r="20" spans="1:1" ht="15">
+      <c r="A20" s="42"/>
+    </row>
+    <row r="21" spans="1:1" ht="15">
+      <c r="A21" s="42"/>
+    </row>
+    <row r="22" spans="1:1" ht="15">
+      <c r="A22" s="42"/>
+    </row>
+    <row r="23" spans="1:1" ht="15">
+      <c r="A23" s="42"/>
+    </row>
+    <row r="24" spans="1:1" ht="15">
+      <c r="A24" s="42"/>
+    </row>
+    <row r="25" spans="1:1" ht="15">
+      <c r="A25" s="42"/>
+    </row>
+    <row r="26" spans="1:1" ht="15">
+      <c r="A26" s="42"/>
+    </row>
+    <row r="27" spans="1:1" ht="15">
+      <c r="A27" s="42"/>
+    </row>
+    <row r="28" spans="1:1" ht="15">
+      <c r="A28" s="42"/>
+    </row>
+    <row r="29" spans="1:1" ht="15">
+      <c r="A29" s="42"/>
+    </row>
+    <row r="30" spans="1:1" ht="15">
+      <c r="A30" s="42"/>
+    </row>
+    <row r="31" spans="1:1" ht="15">
+      <c r="A31" s="42"/>
+    </row>
+    <row r="32" spans="1:1" ht="15">
+      <c r="A32" s="42"/>
+    </row>
+    <row r="33" spans="1:1" ht="15">
+      <c r="A33" s="42"/>
+    </row>
+    <row r="34" spans="1:1" ht="15">
+      <c r="A34" s="42"/>
+    </row>
+    <row r="35" spans="1:1" ht="15">
+      <c r="A35" s="42"/>
+    </row>
+    <row r="36" spans="1:1" ht="15">
+      <c r="A36" s="42"/>
+    </row>
+    <row r="37" spans="1:1" ht="15">
+      <c r="A37" s="42"/>
+    </row>
+    <row r="38" spans="1:1" ht="15">
+      <c r="A38" s="42"/>
+    </row>
+    <row r="39" spans="1:1" ht="15">
+      <c r="A39" s="42"/>
+    </row>
+    <row r="40" spans="1:1" ht="15">
+      <c r="A40" s="42"/>
+    </row>
+    <row r="41" spans="1:1" ht="15">
+      <c r="A41" s="42"/>
+    </row>
+    <row r="42" spans="1:1" ht="15">
+      <c r="A42" s="42"/>
+    </row>
+    <row r="43" spans="1:1" ht="15">
+      <c r="A43" s="42"/>
+    </row>
+    <row r="44" spans="1:1" ht="15">
+      <c r="A44" s="42"/>
+    </row>
+    <row r="45" spans="1:1" ht="15">
+      <c r="A45" s="42"/>
+    </row>
+    <row r="46" spans="1:1" ht="15">
+      <c r="A46" s="42"/>
+    </row>
+    <row r="47" spans="1:1" ht="15">
+      <c r="A47" s="42"/>
+    </row>
+    <row r="48" spans="1:1" ht="15">
+      <c r="A48" s="42"/>
+    </row>
+    <row r="49" spans="1:1" ht="15">
+      <c r="A49" s="42"/>
+    </row>
+    <row r="50" spans="1:1" ht="15">
+      <c r="A50" s="42"/>
+    </row>
+    <row r="51" spans="1:1" ht="15">
+      <c r="A51" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
@@ -7487,55 +8066,55 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C2" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="D2" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="I2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15">
       <c r="A3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="50">
+        <v>128</v>
+      </c>
+      <c r="B3" s="49">
         <v>1</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="49">
         <v>4</v>
       </c>
-      <c r="D3" s="59">
+      <c r="D3" s="58">
         <v>2</v>
       </c>
-      <c r="E3" s="59">
+      <c r="E3" s="58">
         <v>0</v>
       </c>
       <c r="F3" s="43">
@@ -7544,18 +8123,18 @@
     </row>
     <row r="4" spans="1:9" ht="15">
       <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="50">
+        <v>129</v>
+      </c>
+      <c r="B4" s="49">
         <v>2</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="49">
         <v>3</v>
       </c>
-      <c r="D4" s="59">
+      <c r="D4" s="58">
         <v>3</v>
       </c>
-      <c r="E4" s="59">
+      <c r="E4" s="58">
         <v>3</v>
       </c>
       <c r="F4" s="43">
@@ -7564,18 +8143,18 @@
     </row>
     <row r="5" spans="1:9" ht="15">
       <c r="A5" t="s">
-        <v>264</v>
-      </c>
-      <c r="B5" s="50">
+        <v>250</v>
+      </c>
+      <c r="B5" s="49">
         <v>4</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="49">
         <v>2</v>
       </c>
-      <c r="D5" s="59">
+      <c r="D5" s="58">
         <v>4</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="58">
         <v>4</v>
       </c>
       <c r="F5" s="43">
@@ -7584,18 +8163,18 @@
     </row>
     <row r="6" spans="1:9" ht="15">
       <c r="A6" t="s">
-        <v>265</v>
-      </c>
-      <c r="B6" s="50">
+        <v>251</v>
+      </c>
+      <c r="B6" s="49">
         <v>4</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="49">
         <v>4</v>
       </c>
-      <c r="D6" s="59">
+      <c r="D6" s="58">
         <v>6</v>
       </c>
-      <c r="E6" s="59">
+      <c r="E6" s="58">
         <v>3</v>
       </c>
       <c r="F6" s="43">
@@ -7603,15 +8182,15 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
       <c r="F7" s="4"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="B10" s="47"/>
-      <c r="C10" s="47"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7619,7 +8198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F17"/>
   <sheetViews>
@@ -7638,32 +8217,32 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="15">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="C2" s="42">
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -7671,7 +8250,7 @@
     <row r="3" spans="1:6" ht="15">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>254</v>
       </c>
       <c r="C3" s="42">
         <v>5</v>
@@ -7685,7 +8264,7 @@
     <row r="4" spans="1:6" ht="15">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="1" t="s">
@@ -7697,11 +8276,11 @@
     <row r="5" spans="1:6" ht="15">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C5" s="42"/>
       <c r="D5" s="1" t="s">
-        <v>275</v>
+        <v>261</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -7709,11 +8288,11 @@
     <row r="6" spans="1:6" ht="15">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C6" s="42"/>
       <c r="D6" s="1" t="s">
-        <v>276</v>
+        <v>262</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -7721,11 +8300,11 @@
     <row r="7" spans="1:6" ht="15">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C7" s="42"/>
       <c r="D7" s="1" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -7733,25 +8312,25 @@
     <row r="8" spans="1:6" ht="15">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C8" s="42"/>
       <c r="D8" s="1" t="s">
-        <v>277</v>
+        <v>263</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" ht="15">
       <c r="A9" s="1" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="C9" s="42"/>
       <c r="D9" s="1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -7759,25 +8338,25 @@
     <row r="10" spans="1:6" ht="15">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="C10" s="42"/>
       <c r="D10" s="1" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" ht="15">
       <c r="A11" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="C11" s="42"/>
       <c r="D11" s="1" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -7785,11 +8364,11 @@
     <row r="12" spans="1:6" ht="15">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>270</v>
+        <v>256</v>
       </c>
       <c r="C12" s="42"/>
       <c r="D12" s="1" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -7797,11 +8376,11 @@
     <row r="13" spans="1:6" ht="15">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>271</v>
+        <v>257</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="1" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -7809,23 +8388,23 @@
     <row r="14" spans="1:6" ht="15">
       <c r="A14" s="1"/>
       <c r="B14" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" ht="15">
       <c r="A15" s="1" t="s">
-        <v>274</v>
+        <v>260</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="42"/>
       <c r="D15" s="1" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -7852,7 +8431,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D4"/>
   <sheetViews>
@@ -7864,41 +8443,41 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="C3" s="42">
         <v>1</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B4" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="C4" s="42">
         <v>3</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -7906,7 +8485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
@@ -7922,116 +8501,71 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>205</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
-  <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15">
-      <c r="A3" s="42" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="42" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15">
-      <c r="A5" s="42" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15">
-      <c r="A6" s="42" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15">
-      <c r="A7" s="42" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -8059,16 +8593,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -9114,6 +9648,465 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="34.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>148</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3" s="42"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="42"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B5" s="42"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="5"/>
+      <c r="B6" s="42"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="42"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" ht="15">
+      <c r="A10" t="s">
+        <v>281</v>
+      </c>
+      <c r="B10" s="42"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="A11" t="s">
+        <v>281</v>
+      </c>
+      <c r="B11" s="42"/>
+    </row>
+    <row r="12" spans="1:3" ht="15">
+      <c r="A12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B12" s="42"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="B13" s="42"/>
+    </row>
+    <row r="14" spans="1:3" ht="15">
+      <c r="A14" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
+      <c r="A15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B15" s="42"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="A16" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="42"/>
+    </row>
+    <row r="17" spans="1:3" ht="15">
+      <c r="A17" t="s">
+        <v>282</v>
+      </c>
+      <c r="B17" s="42"/>
+    </row>
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="42"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="A19" t="s">
+        <v>282</v>
+      </c>
+      <c r="B19" s="42"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="B20" s="42"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="A21" t="s">
+        <v>286</v>
+      </c>
+      <c r="B21" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="A22" t="s">
+        <v>286</v>
+      </c>
+      <c r="B22" s="42"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="A23" t="s">
+        <v>286</v>
+      </c>
+      <c r="B23" s="42"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="A24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B24" s="42"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="A25" t="s">
+        <v>286</v>
+      </c>
+      <c r="B25" s="42"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
+      <c r="A26" t="s">
+        <v>286</v>
+      </c>
+      <c r="B26" s="42"/>
+    </row>
+    <row r="27" spans="1:3" ht="15">
+      <c r="B27" s="42"/>
+    </row>
+    <row r="28" spans="1:3" ht="15">
+      <c r="A28" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15">
+      <c r="A29" t="s">
+        <v>283</v>
+      </c>
+      <c r="B29" s="42"/>
+    </row>
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" t="s">
+        <v>283</v>
+      </c>
+      <c r="B30" s="42"/>
+    </row>
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" t="s">
+        <v>283</v>
+      </c>
+      <c r="B31" s="42"/>
+    </row>
+    <row r="32" spans="1:3" ht="15">
+      <c r="B32" s="42"/>
+    </row>
+    <row r="33" spans="1:3" ht="15">
+      <c r="A33" t="s">
+        <v>284</v>
+      </c>
+      <c r="B33" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C33" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15">
+      <c r="A34" t="s">
+        <v>284</v>
+      </c>
+      <c r="B34" s="42"/>
+    </row>
+    <row r="35" spans="1:3" ht="15">
+      <c r="A35" t="s">
+        <v>284</v>
+      </c>
+      <c r="B35" s="42"/>
+    </row>
+    <row r="36" spans="1:3" ht="15">
+      <c r="A36" t="s">
+        <v>284</v>
+      </c>
+      <c r="B36" s="42"/>
+    </row>
+    <row r="37" spans="1:3" ht="15">
+      <c r="B37" s="42"/>
+    </row>
+    <row r="38" spans="1:3" ht="15">
+      <c r="A38" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B39" s="42"/>
+    </row>
+    <row r="40" spans="1:3" ht="15">
+      <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" s="42"/>
+    </row>
+    <row r="41" spans="1:3" ht="15">
+      <c r="A41" t="s">
+        <v>285</v>
+      </c>
+      <c r="B41" s="42"/>
+    </row>
+    <row r="42" spans="1:3" ht="15">
+      <c r="B42" s="42"/>
+    </row>
+    <row r="43" spans="1:3" ht="15">
+      <c r="A43" t="s">
+        <v>287</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15">
+      <c r="A44" t="s">
+        <v>287</v>
+      </c>
+      <c r="B44" s="42"/>
+    </row>
+    <row r="45" spans="1:3" ht="15">
+      <c r="A45" t="s">
+        <v>287</v>
+      </c>
+      <c r="B45" s="42"/>
+    </row>
+    <row r="46" spans="1:3" ht="15">
+      <c r="A46" t="s">
+        <v>287</v>
+      </c>
+      <c r="B46" s="42"/>
+    </row>
+    <row r="47" spans="1:3" ht="15">
+      <c r="B47" s="42"/>
+    </row>
+    <row r="48" spans="1:3" ht="15">
+      <c r="A48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15">
+      <c r="A49" t="s">
+        <v>293</v>
+      </c>
+      <c r="B49" s="42"/>
+    </row>
+    <row r="50" spans="1:3" ht="15">
+      <c r="B50" s="42"/>
+    </row>
+    <row r="51" spans="1:3" ht="15">
+      <c r="A51" t="s">
+        <v>294</v>
+      </c>
+      <c r="B51" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15">
+      <c r="A52" t="s">
+        <v>294</v>
+      </c>
+      <c r="B52" s="42"/>
+    </row>
+    <row r="53" spans="1:3" ht="15">
+      <c r="B53" s="42"/>
+    </row>
+    <row r="54" spans="1:3" ht="15">
+      <c r="A54" t="s">
+        <v>295</v>
+      </c>
+      <c r="B54" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C54" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15">
+      <c r="A55" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="42"/>
+    </row>
+    <row r="56" spans="1:3" ht="15">
+      <c r="A56" t="s">
+        <v>295</v>
+      </c>
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" spans="1:3" ht="15">
+      <c r="B57" s="42"/>
+    </row>
+    <row r="58" spans="1:3" ht="15">
+      <c r="A58" t="s">
+        <v>296</v>
+      </c>
+      <c r="B58" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C58" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15">
+      <c r="A59" t="s">
+        <v>296</v>
+      </c>
+      <c r="B59" s="42"/>
+    </row>
+    <row r="60" spans="1:3" ht="15">
+      <c r="A60" t="s">
+        <v>296</v>
+      </c>
+      <c r="B60" s="42"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15">
+      <c r="A3" s="42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15">
+      <c r="A4" s="42" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="15">
+      <c r="A5" s="42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="15">
+      <c r="A6" s="42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="15">
+      <c r="A7" s="42" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B10"/>
   <sheetViews>
@@ -9129,82 +10122,82 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15">
       <c r="A2" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15">
       <c r="A4" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15">
       <c r="A5" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15">
       <c r="A6" t="s">
-        <v>231</v>
+        <v>219</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>220</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>233</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15">
       <c r="A10" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -9213,7 +10206,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K13"/>
   <sheetViews>
@@ -9237,38 +10230,38 @@
     <row r="1" spans="1:11" ht="16.5" thickBot="1"/>
     <row r="2" spans="1:11" ht="16.5" thickBot="1">
       <c r="A2" s="22" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="G2" s="13" t="s">
         <v>69</v>
       </c>
       <c r="I2" s="12" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" thickBot="1">
       <c r="A3" s="20" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C3" s="60">
+        <v>198</v>
+      </c>
+      <c r="C3" s="59">
         <v>153.1</v>
       </c>
       <c r="D3" s="8">
@@ -9296,9 +10289,9 @@
     <row r="4" spans="1:11" ht="16.5" thickBot="1">
       <c r="A4" s="21"/>
       <c r="B4" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="61">
+        <v>197</v>
+      </c>
+      <c r="C4" s="60">
         <v>90.3</v>
       </c>
       <c r="D4" s="8">
@@ -9324,12 +10317,12 @@
     </row>
     <row r="5" spans="1:11" ht="16.5" thickBot="1">
       <c r="A5" s="20" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C5" s="61">
+        <v>198</v>
+      </c>
+      <c r="C5" s="60">
         <v>13.5</v>
       </c>
       <c r="D5" s="8">
@@ -9357,9 +10350,9 @@
     <row r="6" spans="1:11" ht="16.5" thickBot="1">
       <c r="A6" s="21"/>
       <c r="B6" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="61">
+        <v>197</v>
+      </c>
+      <c r="C6" s="60">
         <v>4.3</v>
       </c>
       <c r="D6" s="8">
@@ -9385,12 +10378,12 @@
     </row>
     <row r="7" spans="1:11" ht="24.75" thickBot="1">
       <c r="A7" s="20" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="61">
+        <v>198</v>
+      </c>
+      <c r="C7" s="60">
         <v>26.6</v>
       </c>
       <c r="D7" s="8">
@@ -9417,9 +10410,9 @@
     <row r="8" spans="1:11" ht="16.5" thickBot="1">
       <c r="A8" s="21"/>
       <c r="B8" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C8" s="61">
+        <v>197</v>
+      </c>
+      <c r="C8" s="60">
         <v>11.7</v>
       </c>
       <c r="D8" s="8">
@@ -9445,12 +10438,12 @@
     </row>
     <row r="9" spans="1:11" ht="24.75" thickBot="1">
       <c r="A9" s="20" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="C9" s="61">
+        <v>198</v>
+      </c>
+      <c r="C9" s="60">
         <v>12.7</v>
       </c>
       <c r="D9" s="8">
@@ -9477,9 +10470,9 @@
     <row r="10" spans="1:11" ht="16.5" thickBot="1">
       <c r="A10" s="21"/>
       <c r="B10" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="C10" s="61">
+        <v>197</v>
+      </c>
+      <c r="C10" s="60">
         <v>10.7</v>
       </c>
       <c r="D10" s="8">
@@ -9505,28 +10498,28 @@
     </row>
     <row r="12" spans="1:11" ht="26.25">
       <c r="A12" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="B12" s="76" t="str">
+        <v>196</v>
+      </c>
+      <c r="B12" s="75" t="str">
         <f>'Assessment Information'!B3</f>
         <v>male</v>
       </c>
-      <c r="C12" s="77"/>
+      <c r="C12" s="76"/>
       <c r="D12" s="5" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="26.25">
       <c r="A13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="74">
+      <c r="B13" s="73">
         <f>'Assessment Information'!B6</f>
         <v>39</v>
       </c>
-      <c r="C13" s="75"/>
+      <c r="C13" s="74"/>
       <c r="D13" s="5" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>
@@ -9544,7 +10537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O15"/>
   <sheetViews>
@@ -9556,24 +10549,24 @@
   <sheetData>
     <row r="1" spans="1:15" ht="13.5" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="J1" s="40" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="K1" s="40"/>
       <c r="L1" s="40"/>
       <c r="M1" s="39" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="N1" s="39"/>
       <c r="O1" s="39"/>
@@ -9749,18 +10742,18 @@
     </row>
     <row r="8" spans="1:15" ht="13.5" thickBot="1">
       <c r="A8" s="1" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J8" s="40" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
       <c r="M8" s="39" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="N8" s="24"/>
       <c r="O8" s="24"/>
@@ -9907,7 +10900,7 @@
         <v>41.7</v>
       </c>
       <c r="E13" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="F13" s="26">
         <f>SUM(B13:D13)/3</f>
@@ -9930,7 +10923,7 @@
     </row>
     <row r="15" spans="1:15">
       <c r="F15" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -9944,421 +10937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C60"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="34.42578125" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="70.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="B1" s="53" t="s">
-        <v>160</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B3" s="42"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B4" s="42"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="B5" s="42"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="42"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" t="s">
-        <v>295</v>
-      </c>
-      <c r="B8" s="42"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" t="s">
-        <v>295</v>
-      </c>
-      <c r="B9" s="42"/>
-    </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" t="s">
-        <v>295</v>
-      </c>
-      <c r="B10" s="42"/>
-    </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" t="s">
-        <v>295</v>
-      </c>
-      <c r="B11" s="42"/>
-    </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" t="s">
-        <v>295</v>
-      </c>
-      <c r="B12" s="42"/>
-    </row>
-    <row r="13" spans="1:3" ht="15">
-      <c r="B13" s="42"/>
-    </row>
-    <row r="14" spans="1:3" ht="15">
-      <c r="A14" t="s">
-        <v>296</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15">
-      <c r="A15" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="42"/>
-    </row>
-    <row r="16" spans="1:3" ht="15">
-      <c r="A16" t="s">
-        <v>296</v>
-      </c>
-      <c r="B16" s="42"/>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" t="s">
-        <v>296</v>
-      </c>
-      <c r="B17" s="42"/>
-    </row>
-    <row r="18" spans="1:3" ht="15">
-      <c r="A18" t="s">
-        <v>296</v>
-      </c>
-      <c r="B18" s="42"/>
-    </row>
-    <row r="19" spans="1:3" ht="15">
-      <c r="A19" t="s">
-        <v>296</v>
-      </c>
-      <c r="B19" s="42"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="B20" s="42"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="A21" t="s">
-        <v>300</v>
-      </c>
-      <c r="B21" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C21" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B22" s="42"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" t="s">
-        <v>300</v>
-      </c>
-      <c r="B23" s="42"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="A24" t="s">
-        <v>300</v>
-      </c>
-      <c r="B24" s="42"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" t="s">
-        <v>300</v>
-      </c>
-      <c r="B25" s="42"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="A26" t="s">
-        <v>300</v>
-      </c>
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="B27" s="42"/>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="A28" t="s">
-        <v>297</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C28" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="A29" t="s">
-        <v>297</v>
-      </c>
-      <c r="B29" s="42"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="A30" t="s">
-        <v>297</v>
-      </c>
-      <c r="B30" s="42"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="A31" t="s">
-        <v>297</v>
-      </c>
-      <c r="B31" s="42"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="B32" s="42"/>
-    </row>
-    <row r="33" spans="1:3" ht="15">
-      <c r="A33" t="s">
-        <v>298</v>
-      </c>
-      <c r="B33" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C33" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15">
-      <c r="A34" t="s">
-        <v>298</v>
-      </c>
-      <c r="B34" s="42"/>
-    </row>
-    <row r="35" spans="1:3" ht="15">
-      <c r="A35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="42"/>
-    </row>
-    <row r="36" spans="1:3" ht="15">
-      <c r="A36" t="s">
-        <v>298</v>
-      </c>
-      <c r="B36" s="42"/>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="B37" s="42"/>
-    </row>
-    <row r="38" spans="1:3" ht="15">
-      <c r="A38" t="s">
-        <v>299</v>
-      </c>
-      <c r="B38" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C38" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" t="s">
-        <v>299</v>
-      </c>
-      <c r="B39" s="42"/>
-    </row>
-    <row r="40" spans="1:3" ht="15">
-      <c r="A40" t="s">
-        <v>299</v>
-      </c>
-      <c r="B40" s="42"/>
-    </row>
-    <row r="41" spans="1:3" ht="15">
-      <c r="A41" t="s">
-        <v>299</v>
-      </c>
-      <c r="B41" s="42"/>
-    </row>
-    <row r="42" spans="1:3" ht="15">
-      <c r="B42" s="42"/>
-    </row>
-    <row r="43" spans="1:3" ht="15">
-      <c r="A43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B43" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="15">
-      <c r="A44" t="s">
-        <v>301</v>
-      </c>
-      <c r="B44" s="42"/>
-    </row>
-    <row r="45" spans="1:3" ht="15">
-      <c r="A45" t="s">
-        <v>301</v>
-      </c>
-      <c r="B45" s="42"/>
-    </row>
-    <row r="46" spans="1:3" ht="15">
-      <c r="A46" t="s">
-        <v>301</v>
-      </c>
-      <c r="B46" s="42"/>
-    </row>
-    <row r="47" spans="1:3" ht="15">
-      <c r="B47" s="42"/>
-    </row>
-    <row r="48" spans="1:3" ht="15">
-      <c r="A48" t="s">
-        <v>307</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C48" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="15">
-      <c r="A49" t="s">
-        <v>307</v>
-      </c>
-      <c r="B49" s="42"/>
-    </row>
-    <row r="50" spans="1:3" ht="15">
-      <c r="B50" s="42"/>
-    </row>
-    <row r="51" spans="1:3" ht="15">
-      <c r="A51" t="s">
-        <v>308</v>
-      </c>
-      <c r="B51" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="15">
-      <c r="A52" t="s">
-        <v>308</v>
-      </c>
-      <c r="B52" s="42"/>
-    </row>
-    <row r="53" spans="1:3" ht="15">
-      <c r="B53" s="42"/>
-    </row>
-    <row r="54" spans="1:3" ht="15">
-      <c r="A54" t="s">
-        <v>309</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" ht="15">
-      <c r="A55" t="s">
-        <v>309</v>
-      </c>
-      <c r="B55" s="42"/>
-    </row>
-    <row r="56" spans="1:3" ht="15">
-      <c r="A56" t="s">
-        <v>309</v>
-      </c>
-      <c r="B56" s="42"/>
-    </row>
-    <row r="57" spans="1:3" ht="15">
-      <c r="B57" s="42"/>
-    </row>
-    <row r="58" spans="1:3" ht="15">
-      <c r="A58" t="s">
-        <v>310</v>
-      </c>
-      <c r="B58" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="15">
-      <c r="A59" t="s">
-        <v>310</v>
-      </c>
-      <c r="B59" s="42"/>
-    </row>
-    <row r="60" spans="1:3" ht="15">
-      <c r="A60" t="s">
-        <v>310</v>
-      </c>
-      <c r="B60" s="42"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D5"/>
   <sheetViews>
@@ -10374,54 +10953,54 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C1" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="D3" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" s="42"/>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" s="42"/>
       <c r="B5" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="C5" s="42"/>
     </row>
@@ -10431,7 +11010,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D13"/>
   <sheetViews>
@@ -10448,170 +11027,170 @@
   <sheetData>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
       <c r="D2" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
       <c r="A3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C3" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D3" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
       <c r="A4" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="D4" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
       <c r="A5" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
       <c r="A6" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15">
       <c r="A7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D7" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C9" s="42" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15">
       <c r="A10" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15">
       <c r="A11" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D11" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15">
       <c r="A12" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C12" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15">
       <c r="A13" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -10619,7 +11198,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
@@ -10642,86 +11221,86 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="H3" t="s">
+        <v>336</v>
+      </c>
+      <c r="I3" t="s">
+        <v>337</v>
+      </c>
+      <c r="J3" t="s">
         <v>351</v>
       </c>
-      <c r="I3" t="s">
-        <v>352</v>
-      </c>
-      <c r="J3" t="s">
-        <v>366</v>
-      </c>
       <c r="K3" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="L3" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="C4" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="D4" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="E4" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="H4" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
       <c r="I4" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="K4" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="L4" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="M4" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15">
       <c r="A5" s="42" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="D5" s="42" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="E5" s="42" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H5" s="42" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="42"/>
       <c r="K5" s="42"/>
       <c r="L5" s="42" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M5" s="42" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15">
@@ -10731,16 +11310,16 @@
       <c r="D6" s="42"/>
       <c r="E6" s="42"/>
       <c r="H6" s="42" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="I6" s="42"/>
       <c r="J6" s="42"/>
       <c r="K6" s="42"/>
       <c r="L6" s="42" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M6" s="42" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15">
@@ -10750,16 +11329,16 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="H7" s="42" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="42"/>
       <c r="K7" s="42"/>
       <c r="L7" s="42" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="M7" s="42" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15">
@@ -10865,16 +11444,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -11939,16 +12518,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -13013,16 +13592,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -14087,16 +14666,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -15161,16 +15740,16 @@
         <v>11</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -16226,74 +16805,74 @@
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
     <row r="2" spans="1:1" ht="25.5">
-      <c r="A2" s="52" t="s">
-        <v>291</v>
+      <c r="A2" s="51" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="51" t="s">
-        <v>292</v>
+      <c r="A3" s="50" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="25.5">
-      <c r="A4" s="52"/>
+      <c r="A4" s="51"/>
     </row>
     <row r="5" spans="1:1" ht="25.5">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
     </row>
     <row r="6" spans="1:1" ht="25.5">
-      <c r="A6" s="52"/>
+      <c r="A6" s="51"/>
     </row>
     <row r="7" spans="1:1" ht="25.5">
-      <c r="A7" s="52"/>
+      <c r="A7" s="51"/>
     </row>
     <row r="8" spans="1:1" ht="25.5">
-      <c r="A8" s="52"/>
+      <c r="A8" s="51"/>
     </row>
     <row r="9" spans="1:1" ht="25.5">
-      <c r="A9" s="52"/>
+      <c r="A9" s="51"/>
     </row>
     <row r="10" spans="1:1" ht="25.5">
-      <c r="A10" s="52"/>
+      <c r="A10" s="51"/>
     </row>
     <row r="11" spans="1:1" ht="25.5">
-      <c r="A11" s="52"/>
+      <c r="A11" s="51"/>
     </row>
     <row r="12" spans="1:1" ht="25.5">
-      <c r="A12" s="52"/>
+      <c r="A12" s="51"/>
     </row>
     <row r="13" spans="1:1" ht="25.5">
-      <c r="A13" s="52"/>
+      <c r="A13" s="51"/>
     </row>
     <row r="14" spans="1:1" ht="25.5">
-      <c r="A14" s="52"/>
+      <c r="A14" s="51"/>
     </row>
     <row r="15" spans="1:1" ht="25.5">
-      <c r="A15" s="52"/>
+      <c r="A15" s="51"/>
     </row>
     <row r="16" spans="1:1" ht="25.5">
-      <c r="A16" s="52"/>
+      <c r="A16" s="51"/>
     </row>
     <row r="17" spans="1:1" ht="25.5">
-      <c r="A17" s="52"/>
+      <c r="A17" s="51"/>
     </row>
     <row r="18" spans="1:1" ht="25.5">
-      <c r="A18" s="52"/>
+      <c r="A18" s="51"/>
     </row>
     <row r="19" spans="1:1" ht="25.5">
-      <c r="A19" s="52"/>
+      <c r="A19" s="51"/>
     </row>
     <row r="20" spans="1:1" ht="25.5">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
     </row>
     <row r="21" spans="1:1" ht="25.5">
-      <c r="A21" s="52"/>
+      <c r="A21" s="51"/>
     </row>
     <row r="22" spans="1:1" ht="25.5">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
     </row>
     <row r="23" spans="1:1" ht="25.5">
-      <c r="A23" s="52"/>
+      <c r="A23" s="51"/>
     </row>
   </sheetData>
   <hyperlinks>
